--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_8_15.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_8_15.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-91989.55041322313</v>
+        <v>-91765.74025690986</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>35039594.86796366</v>
+        <v>34918146.5257443</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>20105524.49589032</v>
+        <v>19463052.19146676</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>211580.7516699139</v>
       </c>
     </row>
     <row r="11">
@@ -2318,19 +2320,19 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>3.262548922260277</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>3.262548922260277</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>3.262548922260277</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>2.873653090726852</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2409,10 +2411,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>2.873653090726852</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>3.262548922260277</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2445,7 +2447,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>3.262548922260277</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
@@ -2454,7 +2456,7 @@
         <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>3.262548922260277</v>
       </c>
       <c r="W24" t="n">
         <v>0</v>
@@ -2527,16 +2529,16 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>2.873653090726851</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>3.262548922260277</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>3.262548922260277</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>3.262548922260277</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2567,10 +2569,10 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>3.262548922260276</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>3.262548922260276</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2609,7 +2611,7 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>3.262548922260276</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -2618,7 +2620,7 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>2.873653090726851</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -2685,16 +2687,16 @@
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>2.873653090726851</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>3.262548922260276</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>3.262548922260276</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>3.262548922260276</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
@@ -2713,16 +2715,16 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>3.262548922260276</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>2.873653090726851</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>3.262548922260276</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2773,7 +2775,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>3.262548922260276</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2798,13 +2800,13 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>2.873653090726851</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>3.262548922260276</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2840,10 +2842,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>3.262548922260276</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>3.262548922260276</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -2877,7 +2879,7 @@
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>2.873653090726851</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
@@ -2886,7 +2888,7 @@
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>3.262548922260276</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2919,7 +2921,7 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>3.262548922260276</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
@@ -2928,7 +2930,7 @@
         <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>3.262548922260276</v>
       </c>
       <c r="W30" t="n">
         <v>0</v>
@@ -2962,7 +2964,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>2.873653090726851</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2995,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>3.262548922260276</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>3.262548922260276</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -3007,7 +3009,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>3.262548922260276</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -3041,7 +3043,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>3.262548922260276</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3077,16 +3079,16 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>2.873653090726851</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>3.262548922260276</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>3.262548922260276</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -3105,7 +3107,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>3.262548922260276</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
@@ -3120,7 +3122,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>2.873653090726851</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -3156,7 +3158,7 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>3.262548922260276</v>
       </c>
       <c r="T33" t="n">
         <v>0</v>
@@ -3165,7 +3167,7 @@
         <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>3.262548922260276</v>
       </c>
       <c r="W33" t="n">
         <v>0</v>
@@ -3187,7 +3189,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>2.873653090726851</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3235,16 +3237,16 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>3.262548922260276</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>3.262548922260276</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>3.262548922260276</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -3272,10 +3274,10 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>2.873653090726851</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>3.262548922260276</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -3317,10 +3319,10 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>3.262548922260276</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>3.262548922260276</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -3342,7 +3344,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>3.262548922260276</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
@@ -3360,7 +3362,7 @@
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>2.873653090726851</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3393,7 +3395,7 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>3.262548922260276</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
@@ -3402,7 +3404,7 @@
         <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>3.262548922260276</v>
       </c>
       <c r="W36" t="n">
         <v>0</v>
@@ -3472,19 +3474,19 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>2.873653090726851</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>3.262548922260276</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>3.262548922260276</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>3.262548922260276</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3500,10 +3502,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>2.873653090726852</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>3.262548922260277</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -3554,13 +3556,13 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>3.262548922260277</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>3.262548922260277</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -3639,16 +3641,16 @@
         <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>3.262548922260277</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>3.262548922260277</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>3.262548922260277</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>2.873653090726852</v>
       </c>
     </row>
     <row r="40">
@@ -3670,7 +3672,7 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>3.262548922260277</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3706,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>2.873653090726851</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -3721,10 +3723,10 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>3.262548922260277</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>3.262548922260277</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3752,7 +3754,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>2.873653090726851</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3791,13 +3793,13 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>3.262548922260276</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>3.262548922260276</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>3.262548922260276</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -3816,7 +3818,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>2.873653090726851</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
@@ -3834,7 +3836,7 @@
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>3.262548922260276</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3876,13 +3878,13 @@
         <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>3.262548922260276</v>
       </c>
       <c r="W42" t="n">
         <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>3.262548922260276</v>
       </c>
       <c r="Y42" t="n">
         <v>0</v>
@@ -3895,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>2.873653090726851</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -3949,7 +3951,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>3.262548922260276</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -3958,13 +3960,13 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>3.262548922260276</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>3.262548922260276</v>
       </c>
     </row>
     <row r="44">
@@ -4025,25 +4027,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>52.51403670113842</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>212.0456433386444</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>256.5237009191198</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>342.0137385405339</v>
       </c>
     </row>
     <row r="45">
@@ -4053,25 +4055,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>120.0908620689655</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>105.3918965517241</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>94.13938596491228</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>93.17921052631581</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>82.55</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>83.81976830925504</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>34.44698820166514</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4104,25 +4106,25 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>49.60563018141188</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>126.0091317304331</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>174.5263742585036</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>197.1263427586206</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>183.4695267241379</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>153.3187614035088</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>125.2209214285714</v>
       </c>
     </row>
     <row r="46">
@@ -4132,19 +4134,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4183,10 +4185,10 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>147.2540575406698</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>139.6012844548725</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -4198,10 +4200,10 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
   </sheetData>
@@ -5963,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>13.05019568904111</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>9.75469172716204</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>6.459187765282973</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>3.163683803403905</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>3.163683803403905</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>0.2610039137808222</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>0.2610039137808222</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>0.2610039137808222</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>1.160310701713749</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>2.50813845558963</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>4.180237967355346</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>6.040770853278585</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>7.931409106423309</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>9.71668519667894</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>11.24037703589</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>12.38460615143387</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>13.05019568904111</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>13.05019568904111</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>13.05019568904111</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>13.05019568904111</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>13.05019568904111</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>13.05019568904111</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>13.05019568904111</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>13.05019568904111</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>6.459187765282973</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>6.459187765282973</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>6.459187765282973</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>6.459187765282973</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>6.459187765282973</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>3.55650787565989</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>0.2610039137808222</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>0.4561956203818616</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>0.9918165824064465</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>1.907278118958099</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>3.138229129822361</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>4.574690899292686</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>6.049171537475494</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>7.398033258238116</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>8.480613706900035</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>9.820272256003433</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>13.05019568904111</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>9.75469172716204</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>9.75469172716204</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>9.75469172716204</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>6.459187765282973</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>6.459187765282973</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>6.459187765282973</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>6.459187765282973</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>0.2610039137808222</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>0.2610039137808222</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>0.2610039137808222</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>0.2610039137808222</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>0.2610039137808222</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>0.2610039137808222</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>0.2610039137808222</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>0.2610039137808222</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>0.5970352923692028</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>1.149238072150546</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>1.855867513507673</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>5.085790946545346</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>8.315714379583021</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>11.54563781262069</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>12.65220352905942</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>13.05019568904111</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>13.05019568904111</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>13.05019568904111</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>10.14751579941803</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>6.852011837538957</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>3.55650787565989</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>0.2610039137808222</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>0.2610039137808222</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>0.2610039137808222</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>6.852011837538956</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>6.852011837538956</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>6.852011837538956</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>6.852011837538956</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>6.852011837538956</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>3.556507875659889</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>0.2610039137808221</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>0.2610039137808221</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>1.160310701713749</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>2.50813845558963</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>4.180237967355345</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>6.040770853278583</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>7.931409106423307</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>9.716685196678938</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>11.24037703589</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>12.38460615143387</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>13.05019568904111</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>13.05019568904111</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>13.05019568904111</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>9.754691727162038</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>9.754691727162038</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>9.754691727162038</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>6.852011837538956</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>6.852011837538956</v>
       </c>
     </row>
     <row r="27">
@@ -6279,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>0.2610039137808221</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>0.2610039137808221</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>0.2610039137808221</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>0.2610039137808221</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>0.2610039137808221</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>0.2610039137808221</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>0.2610039137808221</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>0.4561956203818616</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>0.9918165824064465</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>1.907278118958099</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>3.138229129822361</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>4.574690899292685</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>6.049171537475493</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>7.398033258238114</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>8.480613706900034</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>9.820272256003433</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>13.05019568904111</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>13.05019568904111</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>10.14751579941802</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>6.852011837538956</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>3.556507875659889</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>0.2610039137808221</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>0.2610039137808221</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>0.2610039137808221</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>9.754691727162038</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>6.459187765282971</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>6.459187765282971</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>3.556507875659889</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>0.2610039137808221</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>0.2610039137808221</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>0.2610039137808221</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>0.2610039137808221</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>0.5970352923692027</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>1.149238072150546</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>1.855867513507673</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>2.633099146417964</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>3.360425389928086</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>6.590348822965759</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>9.820272256003433</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>13.05019568904111</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>13.05019568904111</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>13.05019568904111</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>13.05019568904111</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>13.05019568904111</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>13.05019568904111</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>9.754691727162038</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>9.754691727162038</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>9.754691727162038</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>6.459187765282971</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>6.459187765282971</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>6.459187765282971</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>3.556507875659889</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>3.556507875659889</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>0.2610039137808221</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>0.2610039137808221</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>0.2610039137808221</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>1.160310701713749</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>2.50813845558963</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>4.180237967355345</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>6.040770853278584</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>7.931409106423307</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>9.716685196678938</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>11.24037703589</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>12.38460615143387</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>13.05019568904111</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>9.754691727162038</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>6.459187765282971</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>6.459187765282971</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>6.459187765282971</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>6.459187765282971</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>6.459187765282971</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>6.459187765282971</v>
       </c>
     </row>
     <row r="30">
@@ -6516,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>6.459187765282971</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>6.459187765282971</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>6.459187765282971</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>3.556507875659889</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>3.556507875659889</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>3.556507875659889</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>0.2610039137808221</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.072177809113711</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>1.607798771138296</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>2.523260307689948</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>3.754211318554211</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>5.190673088024536</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>6.665153726207343</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>8.014015446969966</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>9.096595895631884</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>9.820272256003433</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>13.05019568904111</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>9.754691727162038</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>9.754691727162038</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>9.754691727162038</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>6.459187765282971</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>6.459187765282971</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>6.459187765282971</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>6.459187765282971</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>3.163683803403904</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>3.163683803403904</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>3.163683803403904</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>3.163683803403904</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>3.163683803403904</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>0.2610039137808221</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>0.2610039137808221</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>0.2610039137808221</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>0.5970352923692027</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>1.149238072150546</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>1.855867513507673</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>2.633099146417964</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>3.360425389928086</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>6.590348822965759</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>9.820272256003433</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>13.05019568904111</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>9.754691727162038</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>6.459187765282971</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>6.459187765282971</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>6.459187765282971</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>3.163683803403904</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>3.163683803403904</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>3.163683803403904</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>3.163683803403904</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>3.556507875659889</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>3.556507875659889</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>3.556507875659889</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>3.556507875659889</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>3.556507875659889</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>0.2610039137808221</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>0.2610039137808221</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>0.2610039137808221</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>1.160310701713749</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>2.50813845558963</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>4.180237967355345</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>6.040770853278584</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>7.931409106423307</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>9.716685196678938</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>11.24037703589</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>12.38460615143387</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>13.05019568904111</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>10.14751579941802</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>10.14751579941802</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>6.852011837538956</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>3.556507875659889</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>3.556507875659889</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>3.556507875659889</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>3.556507875659889</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>3.163683803403904</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>3.163683803403904</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>3.163683803403904</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>3.163683803403904</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>3.163683803403904</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>0.2610039137808221</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>0.2610039137808221</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>0.4561956203818616</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>0.9918165824064465</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>1.907278118958099</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>3.138229129822361</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>4.574690899292685</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>6.049171537475493</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>7.398033258238114</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>8.480613706900034</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>11.71053713993771</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>13.05019568904111</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>9.754691727162038</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>9.754691727162038</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>9.754691727162038</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>6.459187765282971</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>6.459187765282971</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>6.459187765282971</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>6.459187765282971</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>3.163683803403904</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>0.2610039137808221</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>0.2610039137808221</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>0.2610039137808221</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>0.2610039137808221</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>0.2610039137808221</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>0.2610039137808221</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>0.2610039137808221</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>0.5970352923692027</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>1.149238072150546</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>4.379161505188219</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>7.609084938225893</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>10.83900837126357</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>12.07735957113994</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>12.65220352905942</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>13.05019568904111</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>13.05019568904111</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>9.754691727162038</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>6.459187765282971</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>6.459187765282971</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>3.163683803403904</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>3.163683803403904</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>3.163683803403904</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>3.163683803403904</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>6.459187765282971</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>6.459187765282971</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>6.459187765282971</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>3.556507875659889</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>0.2610039137808221</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>0.2610039137808221</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>0.2610039137808221</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>0.2610039137808221</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>1.160310701713749</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>2.508138455589629</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>4.180237967355345</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>6.040770853278584</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>7.931409106423307</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>9.716685196678938</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>11.24037703589</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>12.38460615143387</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>13.05019568904111</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>13.05019568904111</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>9.754691727162038</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>6.459187765282971</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>6.459187765282971</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>6.459187765282971</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>6.459187765282971</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>6.459187765282971</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>3.163683803403904</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>3.163683803403904</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>3.163683803403904</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>3.163683803403904</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>3.163683803403904</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>3.163683803403904</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>0.2610039137808221</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>0.4561956203818616</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>3.686119053419535</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>4.601580589971188</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>5.832531600835449</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>7.268993370305775</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>8.743474008488581</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>10.0923357292512</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>11.17491617791312</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>11.89859253828467</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>13.05019568904111</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>9.754691727162038</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>9.754691727162038</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>9.754691727162038</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>6.459187765282971</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>6.459187765282971</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>6.459187765282971</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>6.459187765282971</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>0.2610039137808221</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>0.2610039137808221</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>0.2610039137808221</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>0.2610039137808221</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>0.2610039137808221</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>0.2610039137808221</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>0.2610039137808221</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>0.2610039137808221</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>3.490927346818495</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>6.720850779856169</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>7.427480221213296</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>10.65740365425097</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>11.38472989776109</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>12.0565334048065</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>12.63137736272598</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>13.05019568904111</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>13.05019568904111</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>10.14751579941802</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>10.14751579941802</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>6.852011837538956</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>3.556507875659889</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>0.2610039137808221</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>0.2610039137808221</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>0.2610039137808221</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>3.55650787565989</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>0.2610039137808222</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>0.2610039137808222</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>0.2610039137808222</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>0.2610039137808222</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>0.2610039137808222</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>0.2610039137808222</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>0.2610039137808234</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>1.16031070171375</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>2.508138455589631</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>4.180237967355347</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>6.040770853278586</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>7.931409106423309</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>9.71668519667894</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>11.24037703589</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>12.38460615143387</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>13.05019568904111</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>13.05019568904111</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>9.75469172716204</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>9.75469172716204</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>6.459187765282973</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>6.459187765282973</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>6.459187765282973</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>6.459187765282973</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>0.2610039137808222</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>0.2610039137808222</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>0.2610039137808222</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>0.2610039137808222</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>0.2610039137808222</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>0.2610039137808222</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>0.2610039137808222</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>3.490927346818496</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>4.48573063746969</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>5.401192174021341</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>6.632143184885604</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>8.068604954355928</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>9.543085592538736</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>10.89194731330136</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>11.97452776196328</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>12.69820412233483</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>13.05019568904111</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>13.05019568904111</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>13.05019568904111</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>13.05019568904111</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>9.75469172716204</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>6.459187765282973</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>3.163683803403905</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>0.2610039137808222</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>3.55650787565989</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>3.55650787565989</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>3.55650787565989</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>3.55650787565989</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>0.2610039137808222</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>0.2610039137808222</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>0.2610039137808222</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>0.2610039137808222</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>0.5970352923692028</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>3.826958725406877</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>4.533588166764004</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>5.278629835916563</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>6.005956079426684</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>6.677759586472093</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>9.820272256003433</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>13.05019568904111</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>10.14751579941803</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>10.14751579941803</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>10.14751579941803</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>10.14751579941803</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>10.14751579941803</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>6.852011837538957</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>3.55650787565989</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>3.55650787565989</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>3.163683803403904</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>3.163683803403904</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>3.163683803403904</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>3.163683803403904</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>3.163683803403904</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>0.2610039137808221</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>0.2610039137808221</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>0.2610039137808221</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>1.160310701713749</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>2.508138455589629</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>4.180237967355345</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>6.040770853278585</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>7.931409106423309</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>9.71668519667894</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>11.24037703589</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>12.38460615143387</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>13.05019568904111</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>13.05019568904111</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>9.754691727162038</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>6.459187765282971</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>3.163683803403904</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>3.163683803403904</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>3.163683803403904</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>3.163683803403904</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>3.556507875659889</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>3.556507875659889</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>3.556507875659889</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>3.556507875659889</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>3.556507875659889</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>3.556507875659889</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>0.2610039137808221</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>0.4561956203818616</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>3.686119053419535</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>4.601580589971188</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>5.832531600835449</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>7.268993370305775</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>8.743474008488581</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>10.0923357292512</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>11.17491617791312</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>12.69820412233482</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>13.05019568904111</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>13.05019568904111</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>13.05019568904111</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>13.05019568904111</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>9.754691727162038</v>
       </c>
       <c r="W42" t="n">
-        <v>0</v>
+        <v>9.754691727162038</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>6.459187765282971</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>6.459187765282971</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>0.2610039137808221</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>0.2610039137808221</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>0.2610039137808221</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>0.2610039137808221</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>0.2610039137808221</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>0.2610039137808221</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>0.2610039137808221</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>0.2610039137808221</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>0.5970352923692027</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>3.739547961900544</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>4.44617740325767</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>5.191219072410229</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>5.91854531592035</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>6.590348822965759</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>9.820272256003433</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>13.05019568904111</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>13.05019568904111</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>13.05019568904111</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>9.754691727162038</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>9.754691727162038</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>9.754691727162038</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>6.459187765282971</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>6.459187765282971</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>3.163683803403904</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>83.79828774524233</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>195.5292216073329</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>362.9849282099032</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>570.7285396968689</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>801.8833353847205</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>1036.7784573317</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>1258.583260144776</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>1447.888527710259</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>1590.048899840627</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>1672.742527425299</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>1619.698045908998</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>1405.510527385115</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>1146.395677971862</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>783.7787279056888</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>378.9232733167221</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>378.9232733167221</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>33.45485054850599</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>531.9672238352459</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>425.5107626718882</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>330.4204738184415</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>236.3000591453952</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>152.9162207615568</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>68.24978812594551</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>83.76937108752902</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>474.8738748284774</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>605.2485493631991</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>758.1833518442032</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>936.6510528709197</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>1119.842262896595</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>1287.426430762205</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>1421.927499955579</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>1511.8379027716</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>1672.742527425299</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>1622.635830272358</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>1495.353879029497</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>1319.064612101715</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>1119.947094163714</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>934.6243398969084</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>779.7569041357883</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>653.2711249150091</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>718.3596126512649</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>545.7979011344898</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>379.9199083360126</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>210.1619045867498</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>161.7834697148434</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>505.1482476164479</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>769.144789594209</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>861.7096435212256</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>952.0735121144794</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>1035.539170576305</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>1449.542946114066</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>1667.182735391305</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>1672.742527425299</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>1524.001055161996</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>1382.989656722731</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>1382.989656722731</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>1382.989656722731</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>1382.989656722731</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>1137.597902056144</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>910.178231370252</v>
       </c>
     </row>
   </sheetData>
@@ -9735,10 +9737,10 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>0.6222042310422697</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>2.907001885183226</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9802,16 +9804,16 @@
         <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>2.509981579681934</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>2.52787594901773</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>2.583959521204307</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>0.5370926853729745</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -9972,10 +9974,10 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>0.6222042310422733</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>2.907001885183224</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10039,19 +10041,19 @@
         <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>0.03251511490680092</v>
       </c>
       <c r="N28" t="n">
         <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>2.583959521204308</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>2.681898459715343</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>2.860536639450492</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10185,7 +10187,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>0.6222042310422724</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -10212,7 +10214,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>2.907001885183224</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10276,19 +10278,19 @@
         <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>0.03251511490680103</v>
       </c>
       <c r="N31" t="n">
         <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>2.583959521204308</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>2.681898459715343</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>2.860536639450492</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10446,10 +10448,10 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>2.531562699662753</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>0.9976434165627446</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10510,16 +10512,16 @@
         <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>2.54878180977833</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>2.509981579681934</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>2.527875949017729</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>0.5722703967989516</v>
       </c>
       <c r="P34" t="n">
         <v>0</v>
@@ -10662,7 +10664,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>2.721517647487969</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -10686,7 +10688,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>0.8076884687375276</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10741,16 +10743,16 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>2.923123287322518</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>2.704768336622556</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>2.509981579681934</v>
       </c>
       <c r="N37" t="n">
         <v>0</v>
@@ -10762,7 +10764,7 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>0.02103653164993474</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10896,10 +10898,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>3.065385582259227</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>0.4638205339662715</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -10981,7 +10983,7 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>2.704768336622557</v>
       </c>
       <c r="L40" t="n">
         <v>0</v>
@@ -10996,10 +10998,10 @@
         <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>2.593604759203896</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>2.860536639450494</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11136,7 +11138,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>2.721517647487969</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -11157,7 +11159,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>0.8076884687375276</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -11218,7 +11220,7 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>2.616474636111109</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
@@ -11233,10 +11235,10 @@
         <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>2.681898459715343</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>2.860536639450492</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11370,13 +11372,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>16.80470271645392</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11397,7 +11399,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -11452,13 +11454,13 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>177.9839075203757</v>
       </c>
       <c r="M46" t="n">
         <v>0</v>
@@ -11470,10 +11472,10 @@
         <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>346.0449349349548</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -24206,25 +24208,25 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C23" t="n">
-        <v>433.7610480884109</v>
+        <v>430.4984991661506</v>
       </c>
       <c r="D23" t="n">
-        <v>431.5506869772999</v>
+        <v>428.2881380550396</v>
       </c>
       <c r="E23" t="n">
-        <v>429.4369973932878</v>
+        <v>426.1744484710275</v>
       </c>
       <c r="F23" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G23" t="n">
-        <v>397.3838530629687</v>
+        <v>394.4994971260158</v>
       </c>
       <c r="H23" t="n">
-        <v>286.2388530112159</v>
+        <v>286.1292424873029</v>
       </c>
       <c r="I23" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24254,13 +24256,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>82.81535507800136</v>
+        <v>82.5714639696243</v>
       </c>
       <c r="T23" t="n">
-        <v>217.8665548556918</v>
+        <v>217.819703146337</v>
       </c>
       <c r="U23" t="n">
-        <v>256.6300796561533</v>
+        <v>256.6292234284552</v>
       </c>
       <c r="V23" t="n">
         <v>358.9907805655117</v>
@@ -24297,10 +24299,10 @@
         <v>82.55</v>
       </c>
       <c r="G24" t="n">
-        <v>84.53123883647795</v>
+        <v>81.65185921816891</v>
       </c>
       <c r="H24" t="n">
-        <v>41.31829566194965</v>
+        <v>38.00044053909289</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -24333,16 +24335,16 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>62.82088317610075</v>
+        <v>59.45196651563608</v>
       </c>
       <c r="T24" t="n">
-        <v>128.8768572327044</v>
+        <v>128.8537753079323</v>
       </c>
       <c r="U24" t="n">
-        <v>174.5731815300314</v>
+        <v>174.5728047847957</v>
       </c>
       <c r="V24" t="n">
-        <v>197.1263427586206</v>
+        <v>193.8637938363604</v>
       </c>
       <c r="W24" t="n">
         <v>183.4695267241379</v>
@@ -24376,13 +24378,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G25" t="n">
-        <v>163.9353622244306</v>
+        <v>163.9305612960722</v>
       </c>
       <c r="H25" t="n">
-        <v>138.5031525665292</v>
+        <v>138.4604679489429</v>
       </c>
       <c r="I25" t="n">
-        <v>87.77334973307141</v>
+        <v>87.62897272389382</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,22 +24411,22 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>21.20364308168184</v>
+        <v>20.98777588476758</v>
       </c>
       <c r="S25" t="n">
-        <v>157.6489550149833</v>
+        <v>157.5652879271376</v>
       </c>
       <c r="T25" t="n">
-        <v>243.4206519573293</v>
+        <v>240.5264858090711</v>
       </c>
       <c r="U25" t="n">
-        <v>275.6486707394257</v>
+        <v>272.3858599483459</v>
       </c>
       <c r="V25" t="n">
-        <v>284.0859530482738</v>
+        <v>280.8234041260135</v>
       </c>
       <c r="W25" t="n">
-        <v>269.3061403695714</v>
+        <v>266.0435914473111</v>
       </c>
       <c r="X25" t="n">
         <v>242.9378371199217</v>
@@ -24455,13 +24457,13 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G26" t="n">
-        <v>397.3838530629687</v>
+        <v>394.1106012944824</v>
       </c>
       <c r="H26" t="n">
-        <v>286.2388530112159</v>
+        <v>282.8666935650426</v>
       </c>
       <c r="I26" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24491,13 +24493,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>82.81535507800136</v>
+        <v>82.5714639696243</v>
       </c>
       <c r="T26" t="n">
-        <v>217.8665548556918</v>
+        <v>217.819703146337</v>
       </c>
       <c r="U26" t="n">
-        <v>256.6300796561533</v>
+        <v>253.3666745061949</v>
       </c>
       <c r="V26" t="n">
         <v>358.9907805655117</v>
@@ -24506,7 +24508,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X26" t="n">
-        <v>414.9510387864824</v>
+        <v>412.0773856957555</v>
       </c>
       <c r="Y26" t="n">
         <v>404.2032624633431</v>
@@ -24534,10 +24536,10 @@
         <v>82.55</v>
       </c>
       <c r="G27" t="n">
-        <v>84.53123883647795</v>
+        <v>84.52551230889576</v>
       </c>
       <c r="H27" t="n">
-        <v>41.31829566194965</v>
+        <v>41.26298946135317</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -24570,19 +24572,19 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>62.82088317610075</v>
+        <v>62.71451543789636</v>
       </c>
       <c r="T27" t="n">
-        <v>128.8768572327044</v>
+        <v>125.9801222172054</v>
       </c>
       <c r="U27" t="n">
-        <v>174.5731815300314</v>
+        <v>171.3102558625354</v>
       </c>
       <c r="V27" t="n">
-        <v>197.1263427586206</v>
+        <v>193.8637938363604</v>
       </c>
       <c r="W27" t="n">
-        <v>183.4695267241379</v>
+        <v>180.2069778018777</v>
       </c>
       <c r="X27" t="n">
         <v>153.3187614035088</v>
@@ -24601,25 +24603,25 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C28" t="n">
-        <v>170.8360944016073</v>
+        <v>167.573545479347</v>
       </c>
       <c r="D28" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E28" t="n">
-        <v>168.0604237117701</v>
+        <v>165.1867706210433</v>
       </c>
       <c r="F28" t="n">
-        <v>174.9399834978613</v>
+        <v>171.6774345756011</v>
       </c>
       <c r="G28" t="n">
-        <v>163.9353622244306</v>
+        <v>163.9305612960722</v>
       </c>
       <c r="H28" t="n">
-        <v>138.5031525665292</v>
+        <v>138.4604679489429</v>
       </c>
       <c r="I28" t="n">
-        <v>87.77334973307141</v>
+        <v>87.62897272389382</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,22 +24648,22 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>21.20364308168184</v>
+        <v>20.98777588476758</v>
       </c>
       <c r="S28" t="n">
-        <v>157.6489550149833</v>
+        <v>157.5652879271376</v>
       </c>
       <c r="T28" t="n">
-        <v>243.4206519573293</v>
+        <v>243.400138899798</v>
       </c>
       <c r="U28" t="n">
-        <v>275.6486707394257</v>
+        <v>275.6484088706061</v>
       </c>
       <c r="V28" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W28" t="n">
-        <v>269.3061403695714</v>
+        <v>266.0435914473111</v>
       </c>
       <c r="X28" t="n">
         <v>242.9378371199217</v>
@@ -24686,19 +24688,19 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E29" t="n">
-        <v>429.4369973932878</v>
+        <v>426.5633443025609</v>
       </c>
       <c r="F29" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G29" t="n">
-        <v>397.3838530629687</v>
+        <v>394.1106012944824</v>
       </c>
       <c r="H29" t="n">
-        <v>286.2388530112159</v>
+        <v>286.1292424873029</v>
       </c>
       <c r="I29" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24728,13 +24730,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>82.81535507800136</v>
+        <v>79.30891504736402</v>
       </c>
       <c r="T29" t="n">
-        <v>217.8665548556918</v>
+        <v>214.5571542240768</v>
       </c>
       <c r="U29" t="n">
-        <v>256.6300796561533</v>
+        <v>256.6292234284552</v>
       </c>
       <c r="V29" t="n">
         <v>358.9907805655117</v>
@@ -24765,16 +24767,16 @@
         <v>94.13938596491228</v>
       </c>
       <c r="E30" t="n">
-        <v>93.17921052631581</v>
+        <v>90.30555743558897</v>
       </c>
       <c r="F30" t="n">
         <v>82.55</v>
       </c>
       <c r="G30" t="n">
-        <v>84.53123883647795</v>
+        <v>84.52551230889576</v>
       </c>
       <c r="H30" t="n">
-        <v>41.31829566194965</v>
+        <v>38.00044053909289</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -24807,16 +24809,16 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>62.82088317610075</v>
+        <v>59.45196651563608</v>
       </c>
       <c r="T30" t="n">
-        <v>128.8768572327044</v>
+        <v>128.8537753079323</v>
       </c>
       <c r="U30" t="n">
-        <v>174.5731815300314</v>
+        <v>174.5728047847957</v>
       </c>
       <c r="V30" t="n">
-        <v>197.1263427586206</v>
+        <v>193.8637938363604</v>
       </c>
       <c r="W30" t="n">
         <v>183.4695267241379</v>
@@ -24850,13 +24852,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G31" t="n">
-        <v>163.9353622244306</v>
+        <v>161.0569082053454</v>
       </c>
       <c r="H31" t="n">
-        <v>138.5031525665292</v>
+        <v>138.4604679489429</v>
       </c>
       <c r="I31" t="n">
-        <v>87.77334973307141</v>
+        <v>87.62897272389382</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,19 +24885,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>21.20364308168184</v>
+        <v>17.72522696250731</v>
       </c>
       <c r="S31" t="n">
-        <v>157.6489550149833</v>
+        <v>154.3027390048774</v>
       </c>
       <c r="T31" t="n">
-        <v>243.4206519573293</v>
+        <v>243.400138899798</v>
       </c>
       <c r="U31" t="n">
-        <v>275.6486707394257</v>
+        <v>275.6484088706061</v>
       </c>
       <c r="V31" t="n">
-        <v>284.0859530482738</v>
+        <v>280.8234041260135</v>
       </c>
       <c r="W31" t="n">
         <v>269.3061403695714</v>
@@ -24929,13 +24931,13 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G32" t="n">
-        <v>397.3838530629687</v>
+        <v>394.1106012944824</v>
       </c>
       <c r="H32" t="n">
-        <v>286.2388530112159</v>
+        <v>286.1292424873029</v>
       </c>
       <c r="I32" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24965,16 +24967,16 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>82.81535507800136</v>
+        <v>79.69781087889746</v>
       </c>
       <c r="T32" t="n">
-        <v>217.8665548556918</v>
+        <v>217.819703146337</v>
       </c>
       <c r="U32" t="n">
-        <v>256.6300796561533</v>
+        <v>253.3666745061949</v>
       </c>
       <c r="V32" t="n">
-        <v>358.9907805655117</v>
+        <v>355.7282316432514</v>
       </c>
       <c r="W32" t="n">
         <v>400.806900043077</v>
@@ -24993,7 +24995,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>120.0908620689655</v>
+        <v>116.8283131467052</v>
       </c>
       <c r="C33" t="n">
         <v>105.3918965517241</v>
@@ -25008,10 +25010,10 @@
         <v>82.55</v>
       </c>
       <c r="G33" t="n">
-        <v>84.53123883647795</v>
+        <v>81.65185921816891</v>
       </c>
       <c r="H33" t="n">
-        <v>41.31829566194965</v>
+        <v>41.26298946135317</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -25044,16 +25046,16 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>62.82088317610075</v>
+        <v>59.45196651563608</v>
       </c>
       <c r="T33" t="n">
-        <v>128.8768572327044</v>
+        <v>128.8537753079323</v>
       </c>
       <c r="U33" t="n">
-        <v>174.5731815300314</v>
+        <v>174.5728047847957</v>
       </c>
       <c r="V33" t="n">
-        <v>197.1263427586206</v>
+        <v>193.8637938363604</v>
       </c>
       <c r="W33" t="n">
         <v>183.4695267241379</v>
@@ -25075,7 +25077,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C34" t="n">
-        <v>170.8360944016073</v>
+        <v>167.9624413108805</v>
       </c>
       <c r="D34" t="n">
         <v>164.2192128704925</v>
@@ -25087,13 +25089,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G34" t="n">
-        <v>163.9353622244306</v>
+        <v>163.9305612960722</v>
       </c>
       <c r="H34" t="n">
-        <v>138.5031525665292</v>
+        <v>138.4604679489429</v>
       </c>
       <c r="I34" t="n">
-        <v>87.77334973307141</v>
+        <v>87.62897272389382</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,19 +25122,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>21.20364308168184</v>
+        <v>20.98777588476758</v>
       </c>
       <c r="S34" t="n">
-        <v>157.6489550149833</v>
+        <v>154.3027390048774</v>
       </c>
       <c r="T34" t="n">
-        <v>243.4206519573293</v>
+        <v>240.1375899775377</v>
       </c>
       <c r="U34" t="n">
-        <v>275.6486707394257</v>
+        <v>275.6484088706061</v>
       </c>
       <c r="V34" t="n">
-        <v>284.0859530482738</v>
+        <v>280.8234041260135</v>
       </c>
       <c r="W34" t="n">
         <v>269.3061403695714</v>
@@ -25160,19 +25162,19 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E35" t="n">
-        <v>429.4369973932878</v>
+        <v>426.5633443025609</v>
       </c>
       <c r="F35" t="n">
-        <v>423.5887552948843</v>
+        <v>420.326206372624</v>
       </c>
       <c r="G35" t="n">
-        <v>397.3838530629687</v>
+        <v>397.3731502167427</v>
       </c>
       <c r="H35" t="n">
-        <v>286.2388530112159</v>
+        <v>286.1292424873029</v>
       </c>
       <c r="I35" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25202,13 +25204,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>82.81535507800136</v>
+        <v>82.5714639696243</v>
       </c>
       <c r="T35" t="n">
-        <v>217.8665548556918</v>
+        <v>214.5571542240768</v>
       </c>
       <c r="U35" t="n">
-        <v>256.6300796561533</v>
+        <v>253.3666745061949</v>
       </c>
       <c r="V35" t="n">
         <v>358.9907805655117</v>
@@ -25230,7 +25232,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>120.0908620689655</v>
+        <v>116.8283131467052</v>
       </c>
       <c r="C36" t="n">
         <v>105.3918965517241</v>
@@ -25245,10 +25247,10 @@
         <v>82.55</v>
       </c>
       <c r="G36" t="n">
-        <v>84.53123883647795</v>
+        <v>84.52551230889576</v>
       </c>
       <c r="H36" t="n">
-        <v>41.31829566194965</v>
+        <v>38.38933637062632</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -25281,16 +25283,16 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>62.82088317610075</v>
+        <v>59.45196651563608</v>
       </c>
       <c r="T36" t="n">
-        <v>128.8768572327044</v>
+        <v>128.8537753079323</v>
       </c>
       <c r="U36" t="n">
-        <v>174.5731815300314</v>
+        <v>174.5728047847957</v>
       </c>
       <c r="V36" t="n">
-        <v>197.1263427586206</v>
+        <v>193.8637938363604</v>
       </c>
       <c r="W36" t="n">
         <v>183.4695267241379</v>
@@ -25324,13 +25326,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
-        <v>163.9353622244306</v>
+        <v>163.9305612960722</v>
       </c>
       <c r="H37" t="n">
-        <v>138.5031525665292</v>
+        <v>138.4604679489429</v>
       </c>
       <c r="I37" t="n">
-        <v>87.77334973307141</v>
+        <v>87.62897272389382</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,22 +25359,22 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>21.20364308168184</v>
+        <v>20.98777588476758</v>
       </c>
       <c r="S37" t="n">
-        <v>157.6489550149833</v>
+        <v>154.6916348364108</v>
       </c>
       <c r="T37" t="n">
-        <v>243.4206519573293</v>
+        <v>243.400138899798</v>
       </c>
       <c r="U37" t="n">
-        <v>275.6486707394257</v>
+        <v>272.3858599483459</v>
       </c>
       <c r="V37" t="n">
-        <v>284.0859530482738</v>
+        <v>280.8234041260135</v>
       </c>
       <c r="W37" t="n">
-        <v>269.3061403695714</v>
+        <v>266.0435914473111</v>
       </c>
       <c r="X37" t="n">
         <v>242.9378371199217</v>
@@ -25388,10 +25390,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>422.0365747800587</v>
+        <v>419.1629216893318</v>
       </c>
       <c r="C38" t="n">
-        <v>433.7610480884109</v>
+        <v>430.4984991661506</v>
       </c>
       <c r="D38" t="n">
         <v>431.5506869772999</v>
@@ -25403,13 +25405,13 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G38" t="n">
-        <v>397.3838530629687</v>
+        <v>397.3731502167427</v>
       </c>
       <c r="H38" t="n">
-        <v>286.2388530112159</v>
+        <v>286.1292424873029</v>
       </c>
       <c r="I38" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25439,16 +25441,16 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>82.81535507800136</v>
+        <v>82.5714639696243</v>
       </c>
       <c r="T38" t="n">
-        <v>217.8665548556918</v>
+        <v>214.5571542240768</v>
       </c>
       <c r="U38" t="n">
-        <v>256.6300796561533</v>
+        <v>256.6292234284552</v>
       </c>
       <c r="V38" t="n">
-        <v>358.9907805655117</v>
+        <v>355.7282316432514</v>
       </c>
       <c r="W38" t="n">
         <v>400.806900043077</v>
@@ -25482,10 +25484,10 @@
         <v>82.55</v>
       </c>
       <c r="G39" t="n">
-        <v>84.53123883647795</v>
+        <v>84.52551230889576</v>
       </c>
       <c r="H39" t="n">
-        <v>41.31829566194965</v>
+        <v>41.26298946135317</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -25518,25 +25520,25 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>62.82088317610075</v>
+        <v>62.71451543789636</v>
       </c>
       <c r="T39" t="n">
-        <v>128.8768572327044</v>
+        <v>128.8537753079323</v>
       </c>
       <c r="U39" t="n">
-        <v>174.5731815300314</v>
+        <v>174.5728047847957</v>
       </c>
       <c r="V39" t="n">
-        <v>197.1263427586206</v>
+        <v>193.8637938363604</v>
       </c>
       <c r="W39" t="n">
-        <v>183.4695267241379</v>
+        <v>180.2069778018777</v>
       </c>
       <c r="X39" t="n">
-        <v>153.3187614035088</v>
+        <v>150.0562124812485</v>
       </c>
       <c r="Y39" t="n">
-        <v>125.2209214285714</v>
+        <v>122.3472683378446</v>
       </c>
     </row>
     <row r="40">
@@ -25558,16 +25560,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F40" t="n">
-        <v>174.9399834978613</v>
+        <v>171.6774345756011</v>
       </c>
       <c r="G40" t="n">
-        <v>163.9353622244306</v>
+        <v>163.9305612960722</v>
       </c>
       <c r="H40" t="n">
-        <v>138.5031525665292</v>
+        <v>138.4604679489429</v>
       </c>
       <c r="I40" t="n">
-        <v>87.77334973307141</v>
+        <v>87.62897272389382</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,25 +25596,25 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>21.20364308168184</v>
+        <v>18.11412279404073</v>
       </c>
       <c r="S40" t="n">
-        <v>157.6489550149833</v>
+        <v>157.5652879271376</v>
       </c>
       <c r="T40" t="n">
-        <v>243.4206519573293</v>
+        <v>243.400138899798</v>
       </c>
       <c r="U40" t="n">
-        <v>275.6486707394257</v>
+        <v>275.6484088706061</v>
       </c>
       <c r="V40" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W40" t="n">
-        <v>269.3061403695714</v>
+        <v>266.0435914473111</v>
       </c>
       <c r="X40" t="n">
-        <v>242.9378371199217</v>
+        <v>239.6752881976614</v>
       </c>
       <c r="Y40" t="n">
         <v>225.1454739790328</v>
@@ -25640,13 +25642,13 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
-        <v>397.3838530629687</v>
+        <v>394.4994971260158</v>
       </c>
       <c r="H41" t="n">
-        <v>286.2388530112159</v>
+        <v>286.1292424873029</v>
       </c>
       <c r="I41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25676,16 +25678,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>82.81535507800136</v>
+        <v>82.5714639696243</v>
       </c>
       <c r="T41" t="n">
-        <v>217.8665548556918</v>
+        <v>214.5571542240768</v>
       </c>
       <c r="U41" t="n">
-        <v>256.6300796561533</v>
+        <v>253.3666745061949</v>
       </c>
       <c r="V41" t="n">
-        <v>358.9907805655117</v>
+        <v>355.7282316432514</v>
       </c>
       <c r="W41" t="n">
         <v>400.806900043077</v>
@@ -25704,7 +25706,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>120.0908620689655</v>
+        <v>117.2172089782387</v>
       </c>
       <c r="C42" t="n">
         <v>105.3918965517241</v>
@@ -25719,10 +25721,10 @@
         <v>82.55</v>
       </c>
       <c r="G42" t="n">
-        <v>84.53123883647795</v>
+        <v>84.52551230889576</v>
       </c>
       <c r="H42" t="n">
-        <v>41.31829566194965</v>
+        <v>38.00044053909289</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -25755,22 +25757,22 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>62.82088317610075</v>
+        <v>62.71451543789636</v>
       </c>
       <c r="T42" t="n">
-        <v>128.8768572327044</v>
+        <v>128.8537753079323</v>
       </c>
       <c r="U42" t="n">
-        <v>174.5731815300314</v>
+        <v>174.5728047847957</v>
       </c>
       <c r="V42" t="n">
-        <v>197.1263427586206</v>
+        <v>193.8637938363604</v>
       </c>
       <c r="W42" t="n">
         <v>183.4695267241379</v>
       </c>
       <c r="X42" t="n">
-        <v>153.3187614035088</v>
+        <v>150.0562124812485</v>
       </c>
       <c r="Y42" t="n">
         <v>125.2209214285714</v>
@@ -25783,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>189.9004325317972</v>
+        <v>187.0267794410704</v>
       </c>
       <c r="C43" t="n">
         <v>170.8360944016073</v>
@@ -25798,13 +25800,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
-        <v>163.9353622244306</v>
+        <v>163.9305612960722</v>
       </c>
       <c r="H43" t="n">
-        <v>138.5031525665292</v>
+        <v>138.4604679489429</v>
       </c>
       <c r="I43" t="n">
-        <v>87.77334973307141</v>
+        <v>87.62897272389382</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,28 +25833,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>21.20364308168184</v>
+        <v>20.98777588476758</v>
       </c>
       <c r="S43" t="n">
-        <v>157.6489550149833</v>
+        <v>157.5652879271376</v>
       </c>
       <c r="T43" t="n">
-        <v>243.4206519573293</v>
+        <v>240.1375899775377</v>
       </c>
       <c r="U43" t="n">
-        <v>275.6486707394257</v>
+        <v>275.6484088706061</v>
       </c>
       <c r="V43" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W43" t="n">
-        <v>269.3061403695714</v>
+        <v>266.0435914473111</v>
       </c>
       <c r="X43" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y43" t="n">
-        <v>225.1454739790328</v>
+        <v>221.8829250567725</v>
       </c>
     </row>
     <row r="44">
@@ -25877,13 +25879,13 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
-        <v>397.3838530629687</v>
+        <v>396.054118850051</v>
       </c>
       <c r="H44" t="n">
-        <v>286.2388530112159</v>
+        <v>272.6207125031721</v>
       </c>
       <c r="I44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25913,25 +25915,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y44" t="n">
-        <v>404.2032624633431</v>
+        <v>62.1895239228092</v>
       </c>
     </row>
     <row r="45">
@@ -25941,25 +25943,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>120.0908620689655</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>105.3918965517241</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>94.13938596491228</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>93.17921052631581</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>82.55</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>84.53123883647795</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>41.31829566194965</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -25992,25 +25994,25 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>62.82088317610075</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>128.8768572327044</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>174.5731815300314</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>197.1263427586206</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>183.4695267241379</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>153.3187614035088</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>125.2209214285714</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -26020,28 +26022,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>163.9353622244306</v>
+        <v>163.3388892342509</v>
       </c>
       <c r="H46" t="n">
-        <v>138.5031525665292</v>
+        <v>133.1999654356588</v>
       </c>
       <c r="I46" t="n">
-        <v>87.77334973307141</v>
+        <v>69.83578017384922</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,16 +26070,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>243.4206519573293</v>
+        <v>101.2708010898708</v>
       </c>
       <c r="U46" t="n">
-        <v>275.6486707394257</v>
+        <v>275.6161358490523</v>
       </c>
       <c r="V46" t="n">
         <v>284.0859530482738</v>
@@ -26086,10 +26088,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X46" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>2729.120371701825</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>2729.120371701822</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>2729.120371701825</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>2729.120371701825</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>2729.120371701808</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>2729.12037170182</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>2729.12037170182</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>343971.7922085937</v>
       </c>
     </row>
   </sheetData>
@@ -26332,28 +26334,28 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>725.462710120062</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>725.462710120062</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>725.4627101200618</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>725.4627101200618</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>725.4627101200616</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>725.462710120062</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>725.4627101200616</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>91292.60669269419</v>
       </c>
     </row>
     <row r="3">
@@ -26384,7 +26386,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2871.648774425132</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26405,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>316458.5395085998</v>
       </c>
     </row>
     <row r="4">
@@ -26436,28 +26438,28 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>71.91955883611548</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>71.9195588361155</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>71.91955883611548</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>71.9195588361155</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>71.91955883611548</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>71.9195588361155</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>71.91955883611548</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>9594.864639660447</v>
       </c>
     </row>
     <row r="5">
@@ -26488,28 +26490,28 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>256.4018338459632</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>256.4018338459632</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>256.4018338459632</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>256.4018338459632</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>256.4018338459632</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>256.4018338459632</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>256.4018338459632</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>32636.50261996421</v>
       </c>
     </row>
     <row r="6">
@@ -26540,28 +26542,28 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>-2474.507456987148</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>397.1413174379833</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>397.1413174379832</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>397.1413174379832</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>397.141317437983</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>397.1413174379833</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>397.141317437983</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>-267397.3000755302</v>
       </c>
     </row>
   </sheetData>
@@ -26756,28 +26758,28 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.662332998740293</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>2.662332998740292</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>2.662332998740292</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>2.662332998740292</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>2.662332998740292</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>2.662332998740292</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>2.662332998740292</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>330.7713854632871</v>
       </c>
     </row>
     <row r="4">
@@ -26808,28 +26810,28 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>3.262548922260277</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>3.262548922260276</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>3.262548922260276</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>3.262548922260276</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>3.262548922260276</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>3.262548922260277</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>3.262548922260276</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>418.1856318563248</v>
       </c>
     </row>
   </sheetData>
@@ -26978,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.662332998740293</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26999,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>328.1090524645468</v>
       </c>
     </row>
     <row r="4">
@@ -27030,7 +27032,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>3.262548922260277</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27051,7 +27053,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>414.9230829340646</v>
       </c>
     </row>
   </sheetData>
@@ -32698,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>0.01070284622609162</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>0.1096105239129608</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>0.9083906948817446</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>1.361442175632203</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>1.688989405823955</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>1.879326147397212</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>1.909735609237095</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>1.803309182076396</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>1.539082665869759</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>1.155786985397852</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>0.6723126642497284</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>0.2438911083770631</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>0.0468517093547161</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>0.0008562276980873296</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>0.005726527582196102</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>0.05530620059647288</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>0.19716334000105</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>0.5410312747723081</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>0.9247086227794469</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>1.243384859458851</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>1.450971484313459</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>1.489374382002836</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>1.362486586628912</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>1.093515604709008</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>0.7309862225975235</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>0.3555470370770528</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>0.1063677382043881</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>0.02308192477209743</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>0.0003767452356707963</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>0.004800928358384134</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>0.04268461758636079</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>0.1443770091775884</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>0.3394256349377582</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>0.5577805856377201</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>0.7137671124819468</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>0.7525673425783419</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>0.7346729732425471</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>0.6785894010559685</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>0.5806504625449318</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>0.4020122828097842</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>0.2158671969142538</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>0.08366708784565802</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>0.02051305753127766</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>0.0002618688195482258</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>0.01070284622609162</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>0.1096105239129608</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>0.9083906948817444</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>1.361442175632203</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>1.688989405823955</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>1.879326147397211</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>1.909735609237095</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>1.803309182076396</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>1.539082665869759</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>1.155786985397852</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>0.6723126642497282</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>0.243891108377063</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>0.04685170935471609</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>0.0008562276980873294</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>0.005726527582196101</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>0.05530620059647288</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>0.19716334000105</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>0.5410312747723081</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>0.9247086227794468</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>1.243384859458851</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>1.450971484313459</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>1.489374382002836</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>1.362486586628912</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>1.093515604709008</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>0.7309862225975234</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>0.3555470370770528</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>0.106367738204388</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>0.02308192477209743</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>0.0003767452356707962</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>0.004800928358384133</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>0.04268461758636078</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>0.1443770091775883</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>0.3394256349377582</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>0.55778058563772</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>0.7137671124819467</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>0.7525673425783418</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>0.734672973242547</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>0.6785894010559684</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>0.5806504625449317</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>0.4020122828097841</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>0.2158671969142538</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>0.083667087845658</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>0.02051305753127766</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>0.0002618688195482257</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>0.01070284622609162</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>0.1096105239129608</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>0.9083906948817444</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>1.361442175632203</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>1.688989405823955</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>1.879326147397211</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>1.909735609237095</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>1.803309182076396</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>1.539082665869759</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>1.155786985397852</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>0.6723126642497282</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>0.243891108377063</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>0.04685170935471609</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>0.0008562276980873294</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>0.005726527582196101</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>0.05530620059647288</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>0.19716334000105</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>0.5410312747723081</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>0.9247086227794468</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>1.243384859458851</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>1.450971484313459</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>1.489374382002836</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>1.362486586628912</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>1.093515604709008</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>0.7309862225975234</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>0.3555470370770528</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>0.106367738204388</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>0.02308192477209743</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>0.0003767452356707962</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>0.004800928358384133</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>0.04268461758636078</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>0.1443770091775883</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>0.3394256349377582</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>0.55778058563772</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>0.7137671124819467</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>0.7525673425783418</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>0.734672973242547</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>0.6785894010559684</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>0.5806504625449317</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>0.4020122828097841</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>0.2158671969142538</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>0.083667087845658</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>0.02051305753127766</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>0.0002618688195482257</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>0.01070284622609162</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>0.1096105239129608</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>0.9083906948817444</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>1.361442175632203</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>1.688989405823955</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>1.879326147397211</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>1.909735609237095</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>1.803309182076396</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>1.539082665869759</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>1.155786985397852</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>0.6723126642497282</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>0.243891108377063</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>0.04685170935471609</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>0.0008562276980873294</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>0.005726527582196101</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>0.05530620059647288</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>0.19716334000105</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>0.5410312747723081</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>0.9247086227794468</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>1.243384859458851</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>1.450971484313459</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>1.489374382002836</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>1.362486586628912</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>1.093515604709008</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>0.7309862225975234</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>0.3555470370770528</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>0.106367738204388</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>0.02308192477209743</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>0.0003767452356707962</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>0.004800928358384133</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>0.04268461758636078</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>0.1443770091775883</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>0.3394256349377582</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>0.55778058563772</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>0.7137671124819467</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>0.7525673425783418</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>0.734672973242547</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>0.6785894010559684</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>0.5806504625449317</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>0.4020122828097841</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>0.2158671969142538</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>0.083667087845658</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>0.02051305753127766</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>0.0002618688195482257</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>0.01070284622609162</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>0.1096105239129608</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>0.9083906948817444</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>1.361442175632203</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>1.688989405823955</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>1.879326147397211</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>1.909735609237095</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>1.803309182076396</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>1.539082665869759</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>1.155786985397852</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>0.6723126642497282</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>0.243891108377063</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>0.04685170935471609</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>0.0008562276980873294</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>0.005726527582196101</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>0.05530620059647288</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>0.19716334000105</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>0.5410312747723081</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>0.9247086227794468</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>1.243384859458851</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>1.450971484313459</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>1.489374382002836</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>1.362486586628912</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>1.093515604709008</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>0.7309862225975234</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>0.3555470370770528</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>0.106367738204388</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>0.02308192477209743</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>0.0003767452356707962</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>0.004800928358384133</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>0.04268461758636078</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>0.1443770091775883</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>0.3394256349377582</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>0.55778058563772</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>0.7137671124819467</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>0.7525673425783418</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>0.734672973242547</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>0.6785894010559684</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>0.5806504625449317</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>0.4020122828097841</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>0.2158671969142538</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>0.083667087845658</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>0.02051305753127766</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>0.0002618688195482257</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>0.01070284622609162</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>0.1096105239129608</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>0.9083906948817444</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>1.361442175632203</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>1.688989405823955</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>1.879326147397211</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>1.909735609237095</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>1.803309182076396</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>1.539082665869759</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>1.155786985397852</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>0.6723126642497282</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>0.243891108377063</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>0.04685170935471609</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>0.0008562276980873294</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>0.005726527582196101</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>0.05530620059647288</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>0.19716334000105</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>0.5410312747723081</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>0.9247086227794468</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>1.243384859458851</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>1.450971484313459</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>1.489374382002836</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>1.362486586628912</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>1.093515604709008</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>0.7309862225975234</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>0.3555470370770528</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>0.106367738204388</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>0.02308192477209743</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>0.0003767452356707962</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>0.004800928358384133</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>0.04268461758636078</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>0.1443770091775883</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>0.3394256349377582</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>0.55778058563772</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>0.7137671124819467</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>0.7525673425783418</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>0.734672973242547</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>0.6785894010559684</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>0.5806504625449317</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>0.4020122828097841</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>0.2158671969142538</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>0.083667087845658</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>0.02051305753127766</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>0.0002618688195482257</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>0.01070284622609162</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>0.1096105239129608</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>0.9083906948817444</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>1.361442175632203</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>1.688989405823955</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>1.879326147397211</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>1.909735609237095</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>1.803309182076396</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>1.539082665869759</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>1.155786985397852</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>0.6723126642497282</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>0.243891108377063</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>0.04685170935471609</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>0.0008562276980873294</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>0.005726527582196101</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>0.05530620059647288</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>0.19716334000105</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>0.5410312747723081</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>0.9247086227794468</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>1.243384859458851</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>1.450971484313459</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>1.489374382002836</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>1.362486586628912</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>1.093515604709008</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>0.7309862225975234</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>0.3555470370770528</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>0.106367738204388</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>0.02308192477209743</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>0.0003767452356707962</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>0.004800928358384133</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>0.04268461758636078</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>0.1443770091775883</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>0.3394256349377582</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>0.55778058563772</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>0.7137671124819467</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>0.7525673425783418</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>0.734672973242547</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>0.6785894010559684</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>0.5806504625449317</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>0.4020122828097841</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>0.2158671969142538</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>0.083667087845658</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>0.02051305753127766</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>0.0002618688195482257</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>1.329734212917736</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>13.61814050804377</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>51.26457824351107</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>112.8595291536268</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>169.1471783864346</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>209.8420318050158</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>233.4896926139916</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>237.2677999464441</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>224.0452553667434</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>191.2174419853368</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>143.5963354852203</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>83.52891675219382</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>30.30131837686294</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>5.820911517047393</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>0.1063787370334189</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>0.7114705272229195</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>6.871307460284513</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>24.49580543289438</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>67.21836239872329</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>114.8868877226589</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>154.4795984656607</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>180.2704050774915</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>185.041626288561</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>169.27693723799</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>135.8596658518924</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>90.81858870305197</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>44.17358238319146</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>13.21525299468887</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>2.867725502271328</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>0.04680727152782367</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>0.596472990179698</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>5.30318713087041</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>17.9375695592222</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>42.17064040570465</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>69.29931649542308</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>88.67926619453439</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>93.49985245153211</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>91.27663494268057</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>84.30874592103589</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>72.14069692136999</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>49.94647920495635</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>26.81959463117078</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>10.39489747431346</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>2.548566412585982</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>0.03253489037343811</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -36355,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>0.9083906948817446</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>1.361442175632203</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>1.688989405823955</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>1.879326147397212</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>1.909735609237095</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>1.803309182076395</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>1.539082665869758</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>1.155786985397853</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>0.6723126642497288</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,34 +36433,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>0.19716334000105</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>0.5410312747723081</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>0.9247086227794468</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>1.243384859458851</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>1.450971484313459</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>1.489374382002836</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>1.362486586628912</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>1.09351560470901</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>1.353190453639794</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>3.262548922260278</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>0.3394256349377582</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>0.55778058563772</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>0.7137671124819467</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>3.262548922260276</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>3.262548922260278</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>3.262548922260276</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>1.117743147917906</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>0.4020122828097836</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>0.9083906948817444</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>1.361442175632203</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>1.688989405823955</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>1.879326147397211</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>1.909735609237095</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>1.803309182076395</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>1.53908266586976</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>1.155786985397851</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>0.6723126642497288</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,34 +36670,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>0.19716334000105</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>0.5410312747723081</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>0.9247086227794468</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>1.243384859458851</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>1.450971484313459</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>1.489374382002836</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>1.362486586628911</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>1.093515604709008</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>1.353190453639797</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>3.262548922260276</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>0.3394256349377582</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>0.5577805856377201</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>0.7137671124819467</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>0.7850824574851427</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>0.7346729732425472</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>3.262548922260276</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>3.262548922260276</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>3.262548922260276</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>0.9083906948817444</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>1.361442175632203</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>1.688989405823955</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>1.879326147397212</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>1.909735609237094</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>1.803309182076395</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>1.539082665869758</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>1.155786985397855</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>0.672312664249727</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,34 +36907,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>0.8193675710433224</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>0.5410312747723081</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>0.9247086227794468</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>1.243384859458851</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>1.450971484313459</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>1.489374382002836</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>1.362486586628911</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>1.093515604709008</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>0.7309862225975241</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>3.262548922260276</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>0.3394256349377582</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>0.5577805856377201</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>0.7137671124819467</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>0.7850824574851427</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>0.7346729732425472</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>3.262548922260276</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>3.262548922260276</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>3.262548922260276</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>0.9083906948817444</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>1.361442175632203</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>1.688989405823955</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>1.879326147397212</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>1.909735609237094</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>1.803309182076395</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>1.539082665869758</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>1.155786985397851</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>0.6723126642497306</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,34 +37144,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>0.19716334000105</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>0.5410312747723081</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>0.9247086227794468</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>1.243384859458851</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>1.450971484313459</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>1.489374382002836</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>1.362486586628911</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>1.093515604709008</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>3.262548922260276</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>1.353190453639797</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>0.3394256349377582</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>0.5577805856377201</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>3.262548922260277</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>3.262548922260276</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>3.262548922260276</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>1.25085979785492</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>0.5806504625449325</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>0.4020122828097836</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>0.9083906948817444</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>1.361442175632203</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>1.688989405823955</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>1.879326147397212</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>1.909735609237094</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>1.803309182076395</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>1.539082665869758</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>1.155786985397851</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>0.6723126642497306</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,34 +37381,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>0.19716334000105</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>3.262548922260276</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>0.924708622779447</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>1.243384859458851</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>1.45097148431346</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>1.489374382002836</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>1.362486586628911</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>1.093515604709008</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>0.7309862225975241</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>1.16323550581458</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>3.262548922260276</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>3.262548922260276</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>0.7137671124819462</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>3.262548922260276</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>0.7346729732425477</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>0.6785894010559694</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>0.5806504625449325</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>0.4230488144597189</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37540,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>0.9083906948817444</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>1.361442175632203</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>1.688989405823955</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>1.879326147397212</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>1.909735609237094</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>1.803309182076395</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>1.53908266586976</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>1.155786985397851</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>0.6723126642497288</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,34 +37618,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>3.262548922260277</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>1.00485180873858</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>0.9247086227794465</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>1.243384859458851</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>1.45097148431346</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>1.489374382002836</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>1.362486586628911</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>1.093515604709008</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>0.7309862225975241</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>0.3555470370770522</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>0.3394256349377582</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>3.262548922260277</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>0.7137671124819471</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>0.7525673425783417</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>0.7346729732425468</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>0.6785894010559685</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>3.174255221748828</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>3.262548922260278</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>0.9083906948817442</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>1.361442175632203</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>1.688989405823955</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>1.879326147397212</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>1.909735609237095</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>1.803309182076395</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>1.539082665869758</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>1.155786985397853</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>0.672312664249727</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,34 +37855,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>0.19716334000105</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>3.262548922260276</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>0.924708622779447</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>1.243384859458851</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>1.45097148431346</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>1.489374382002836</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>1.362486586628911</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>1.093515604709008</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>1.538674691335052</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>0.3555470370770522</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>0.3394256349377582</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>3.17425522174883</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>0.7137671124819467</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>0.7525673425783417</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>0.7346729732425468</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>0.6785894010559685</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>3.262548922260276</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>3.262548922260276</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38011,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>50.85195676437968</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>112.8595291536268</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>169.1471783864347</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>209.8420318050158</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>233.4896926139916</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>237.2677999464443</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>224.0452553667433</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>191.2174419853368</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>143.5963354852202</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>83.52891675219394</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,34 +38092,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>50.82274801921519</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>395.0550542837863</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>131.6915904391128</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>154.4795984656607</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>180.2704050774914</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>185.041626288561</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>169.2769372379901</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>135.8596658518925</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>90.818588703052</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>162.5299238926254</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,31 +38174,31 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>129.6248678447853</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>346.8331089915197</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>266.6631737149102</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>93.49985245153209</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>91.27663494268052</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>84.30874592103589</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>418.1856318563248</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>219.8381709871101</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>5.615951549488944</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_8_15.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_8_15.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-91765.74025690986</v>
+        <v>-103184.2369284616</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>34918146.5257443</v>
+        <v>35032685.82450416</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>19463052.19146676</v>
+        <v>20066833.15135059</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>211580.7516699139</v>
+        <v>14521.61148857042</v>
       </c>
     </row>
     <row r="11">
@@ -2320,67 +2320,67 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
+        <v>2.873653090726852</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
         <v>3.262548922260277</v>
       </c>
-      <c r="D23" t="n">
+      <c r="H23" t="n">
         <v>3.262548922260277</v>
       </c>
-      <c r="E23" t="n">
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>0</v>
+      </c>
+      <c r="R23" t="n">
+        <v>0</v>
+      </c>
+      <c r="S23" t="n">
+        <v>0</v>
+      </c>
+      <c r="T23" t="n">
+        <v>0</v>
+      </c>
+      <c r="U23" t="n">
+        <v>0</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="n">
         <v>3.262548922260277</v>
-      </c>
-      <c r="F23" t="n">
-        <v>0</v>
-      </c>
-      <c r="G23" t="n">
-        <v>2.873653090726852</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0</v>
-      </c>
-      <c r="P23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>0</v>
-      </c>
-      <c r="R23" t="n">
-        <v>0</v>
-      </c>
-      <c r="S23" t="n">
-        <v>0</v>
-      </c>
-      <c r="T23" t="n">
-        <v>0</v>
-      </c>
-      <c r="U23" t="n">
-        <v>0</v>
-      </c>
-      <c r="V23" t="n">
-        <v>0</v>
-      </c>
-      <c r="W23" t="n">
-        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -2447,13 +2447,13 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
+        <v>0</v>
+      </c>
+      <c r="T24" t="n">
+        <v>0</v>
+      </c>
+      <c r="U24" t="n">
         <v>3.262548922260277</v>
-      </c>
-      <c r="T24" t="n">
-        <v>0</v>
-      </c>
-      <c r="U24" t="n">
-        <v>0</v>
       </c>
       <c r="V24" t="n">
         <v>3.262548922260277</v>
@@ -2490,10 +2490,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>3.262548922260277</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>3.262548922260277</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,22 +2523,22 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>3.262548922260277</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>2.873653090726852</v>
       </c>
       <c r="T25" t="n">
-        <v>2.873653090726851</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>3.262548922260277</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>3.262548922260277</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>3.262548922260277</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2569,10 +2569,10 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.262548922260276</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>3.262548922260276</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2608,19 +2608,19 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>3.262548922260277</v>
       </c>
       <c r="U26" t="n">
-        <v>3.262548922260276</v>
+        <v>3.262548922260277</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>3.262548922260277</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>2.873653090726849</v>
       </c>
       <c r="X26" t="n">
-        <v>2.873653090726851</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -2687,19 +2687,19 @@
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>2.873653090726851</v>
+        <v>3.262548922260277</v>
       </c>
       <c r="U27" t="n">
-        <v>3.262548922260276</v>
+        <v>3.262548922260277</v>
       </c>
       <c r="V27" t="n">
-        <v>3.262548922260276</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>3.262548922260276</v>
+        <v>3.262548922260277</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>2.873653090726852</v>
       </c>
       <c r="Y27" t="n">
         <v>0</v>
@@ -2715,22 +2715,22 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>3.262548922260276</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>3.262548922260277</v>
       </c>
       <c r="E28" t="n">
-        <v>2.873653090726851</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>3.262548922260276</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>2.873653090726852</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>3.262548922260277</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>3.262548922260277</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -2775,7 +2775,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>3.262548922260276</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2794,19 +2794,19 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>3.262548922260277</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>2.873653090726851</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.262548922260276</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2842,19 +2842,19 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>3.262548922260276</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>3.262548922260276</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>2.873653090726847</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>3.262548922260277</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>3.262548922260277</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -2873,22 +2873,22 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>3.262548922260277</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>2.873653090726851</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>3.262548922260277</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>2.873653090726852</v>
       </c>
       <c r="H30" t="n">
-        <v>3.262548922260276</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2921,7 +2921,7 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>3.262548922260276</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
@@ -2930,7 +2930,7 @@
         <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>3.262548922260276</v>
+        <v>3.262548922260277</v>
       </c>
       <c r="W30" t="n">
         <v>0</v>
@@ -2955,7 +2955,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>3.262548922260277</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2964,7 +2964,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>2.873653090726851</v>
+        <v>3.262548922260277</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2997,19 +2997,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>3.262548922260276</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>3.262548922260276</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>3.262548922260277</v>
       </c>
       <c r="V31" t="n">
-        <v>3.262548922260276</v>
+        <v>2.873653090726852</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -3043,7 +3043,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.262548922260276</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3079,25 +3079,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>2.873653090726851</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>3.262548922260276</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>3.262548922260276</v>
+        <v>3.262548922260277</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>3.262548922260277</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>3.262548922260277</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>2.873653090726849</v>
       </c>
     </row>
     <row r="33">
@@ -3107,68 +3107,68 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3.262548922260276</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>3.262548922260277</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>3.262548922260277</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
       </c>
       <c r="G33" t="n">
+        <v>0</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0</v>
+      </c>
+      <c r="O33" t="n">
+        <v>0</v>
+      </c>
+      <c r="P33" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>0</v>
+      </c>
+      <c r="R33" t="n">
+        <v>0</v>
+      </c>
+      <c r="S33" t="n">
+        <v>0</v>
+      </c>
+      <c r="T33" t="n">
+        <v>0</v>
+      </c>
+      <c r="U33" t="n">
+        <v>0</v>
+      </c>
+      <c r="V33" t="n">
         <v>2.873653090726851</v>
       </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
-      <c r="J33" t="n">
-        <v>0</v>
-      </c>
-      <c r="K33" t="n">
-        <v>0</v>
-      </c>
-      <c r="L33" t="n">
-        <v>0</v>
-      </c>
-      <c r="M33" t="n">
-        <v>0</v>
-      </c>
-      <c r="N33" t="n">
-        <v>0</v>
-      </c>
-      <c r="O33" t="n">
-        <v>0</v>
-      </c>
-      <c r="P33" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q33" t="n">
-        <v>0</v>
-      </c>
-      <c r="R33" t="n">
-        <v>0</v>
-      </c>
-      <c r="S33" t="n">
-        <v>3.262548922260276</v>
-      </c>
-      <c r="T33" t="n">
-        <v>0</v>
-      </c>
-      <c r="U33" t="n">
-        <v>0</v>
-      </c>
-      <c r="V33" t="n">
-        <v>3.262548922260276</v>
-      </c>
       <c r="W33" t="n">
         <v>0</v>
       </c>
@@ -3176,7 +3176,7 @@
         <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>3.262548922260277</v>
       </c>
     </row>
     <row r="34">
@@ -3189,64 +3189,64 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
+        <v>0</v>
+      </c>
+      <c r="D34" t="n">
+        <v>3.262548922260277</v>
+      </c>
+      <c r="E34" t="n">
+        <v>3.262548922260277</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0</v>
+      </c>
+      <c r="O34" t="n">
+        <v>0</v>
+      </c>
+      <c r="P34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>0</v>
+      </c>
+      <c r="R34" t="n">
         <v>2.873653090726851</v>
       </c>
-      <c r="D34" t="n">
-        <v>0</v>
-      </c>
-      <c r="E34" t="n">
-        <v>0</v>
-      </c>
-      <c r="F34" t="n">
-        <v>0</v>
-      </c>
-      <c r="G34" t="n">
-        <v>0</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>0</v>
-      </c>
-      <c r="K34" t="n">
-        <v>0</v>
-      </c>
-      <c r="L34" t="n">
-        <v>0</v>
-      </c>
-      <c r="M34" t="n">
-        <v>0</v>
-      </c>
-      <c r="N34" t="n">
-        <v>0</v>
-      </c>
-      <c r="O34" t="n">
-        <v>0</v>
-      </c>
-      <c r="P34" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>0</v>
-      </c>
-      <c r="R34" t="n">
-        <v>0</v>
-      </c>
       <c r="S34" t="n">
-        <v>3.262548922260276</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>3.262548922260276</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>3.262548922260277</v>
       </c>
       <c r="V34" t="n">
-        <v>3.262548922260276</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -3265,19 +3265,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>2.87365309072685</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>3.262548922260276</v>
       </c>
       <c r="E35" t="n">
-        <v>2.873653090726851</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>3.262548922260276</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -3322,16 +3322,16 @@
         <v>3.262548922260276</v>
       </c>
       <c r="U35" t="n">
+        <v>0</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="n">
+        <v>0</v>
+      </c>
+      <c r="X35" t="n">
         <v>3.262548922260276</v>
-      </c>
-      <c r="V35" t="n">
-        <v>0</v>
-      </c>
-      <c r="W35" t="n">
-        <v>0</v>
-      </c>
-      <c r="X35" t="n">
-        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3344,25 +3344,25 @@
         </is>
       </c>
       <c r="B36" t="n">
+        <v>0</v>
+      </c>
+      <c r="C36" t="n">
+        <v>0</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0</v>
+      </c>
+      <c r="E36" t="n">
+        <v>2.87365309072685</v>
+      </c>
+      <c r="F36" t="n">
         <v>3.262548922260276</v>
       </c>
-      <c r="C36" t="n">
-        <v>0</v>
-      </c>
-      <c r="D36" t="n">
-        <v>0</v>
-      </c>
-      <c r="E36" t="n">
-        <v>0</v>
-      </c>
-      <c r="F36" t="n">
-        <v>0</v>
-      </c>
       <c r="G36" t="n">
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>2.873653090726851</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3395,7 +3395,7 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>3.262548922260276</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
@@ -3407,7 +3407,7 @@
         <v>3.262548922260276</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>3.262548922260276</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
@@ -3471,22 +3471,22 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>3.262548922260276</v>
       </c>
       <c r="S37" t="n">
-        <v>2.873653090726851</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>3.262548922260276</v>
       </c>
       <c r="U37" t="n">
         <v>3.262548922260276</v>
       </c>
       <c r="V37" t="n">
-        <v>3.262548922260276</v>
+        <v>2.87365309072685</v>
       </c>
       <c r="W37" t="n">
-        <v>3.262548922260276</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3502,10 +3502,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2.873653090726852</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>3.262548922260277</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -3520,7 +3520,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>3.262548922260276</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3556,13 +3556,13 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>3.262548922260277</v>
+        <v>2.873653090726851</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>3.262548922260276</v>
       </c>
       <c r="V38" t="n">
-        <v>3.262548922260277</v>
+        <v>3.262548922260276</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -3593,13 +3593,13 @@
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>3.262548922260276</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>3.262548922260276</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3641,16 +3641,16 @@
         <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>3.262548922260277</v>
+        <v>2.873653090726851</v>
       </c>
       <c r="W39" t="n">
-        <v>3.262548922260277</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>3.262548922260277</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>2.873653090726852</v>
+        <v>3.262548922260276</v>
       </c>
     </row>
     <row r="40">
@@ -3672,7 +3672,7 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>3.262548922260277</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3720,13 +3720,13 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>3.262548922260276</v>
       </c>
       <c r="W40" t="n">
-        <v>3.262548922260277</v>
+        <v>3.262548922260276</v>
       </c>
       <c r="X40" t="n">
-        <v>3.262548922260277</v>
+        <v>3.262548922260276</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3751,58 +3751,58 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>3.262548922260276</v>
       </c>
       <c r="G41" t="n">
+        <v>3.262548922260276</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0</v>
+      </c>
+      <c r="P41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>0</v>
+      </c>
+      <c r="R41" t="n">
+        <v>0</v>
+      </c>
+      <c r="S41" t="n">
+        <v>3.262548922260276</v>
+      </c>
+      <c r="T41" t="n">
+        <v>0</v>
+      </c>
+      <c r="U41" t="n">
+        <v>0</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="n">
         <v>2.873653090726851</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" t="n">
-        <v>0</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0</v>
-      </c>
-      <c r="L41" t="n">
-        <v>0</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" t="n">
-        <v>0</v>
-      </c>
-      <c r="O41" t="n">
-        <v>0</v>
-      </c>
-      <c r="P41" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>0</v>
-      </c>
-      <c r="R41" t="n">
-        <v>0</v>
-      </c>
-      <c r="S41" t="n">
-        <v>0</v>
-      </c>
-      <c r="T41" t="n">
-        <v>3.262548922260276</v>
-      </c>
-      <c r="U41" t="n">
-        <v>3.262548922260276</v>
-      </c>
-      <c r="V41" t="n">
-        <v>3.262548922260276</v>
-      </c>
-      <c r="W41" t="n">
-        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -3818,73 +3818,73 @@
         </is>
       </c>
       <c r="B42" t="n">
+        <v>0</v>
+      </c>
+      <c r="C42" t="n">
+        <v>3.262548922260276</v>
+      </c>
+      <c r="D42" t="n">
+        <v>3.262548922260276</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0</v>
+      </c>
+      <c r="I42" t="n">
+        <v>0</v>
+      </c>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
+      <c r="K42" t="n">
+        <v>0</v>
+      </c>
+      <c r="L42" t="n">
+        <v>0</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0</v>
+      </c>
+      <c r="N42" t="n">
+        <v>0</v>
+      </c>
+      <c r="O42" t="n">
+        <v>0</v>
+      </c>
+      <c r="P42" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>0</v>
+      </c>
+      <c r="R42" t="n">
+        <v>0</v>
+      </c>
+      <c r="S42" t="n">
+        <v>0</v>
+      </c>
+      <c r="T42" t="n">
+        <v>0</v>
+      </c>
+      <c r="U42" t="n">
         <v>2.873653090726851</v>
       </c>
-      <c r="C42" t="n">
-        <v>0</v>
-      </c>
-      <c r="D42" t="n">
-        <v>0</v>
-      </c>
-      <c r="E42" t="n">
-        <v>0</v>
-      </c>
-      <c r="F42" t="n">
-        <v>0</v>
-      </c>
-      <c r="G42" t="n">
-        <v>0</v>
-      </c>
-      <c r="H42" t="n">
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="n">
         <v>3.262548922260276</v>
       </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
-      <c r="J42" t="n">
-        <v>0</v>
-      </c>
-      <c r="K42" t="n">
-        <v>0</v>
-      </c>
-      <c r="L42" t="n">
-        <v>0</v>
-      </c>
-      <c r="M42" t="n">
-        <v>0</v>
-      </c>
-      <c r="N42" t="n">
-        <v>0</v>
-      </c>
-      <c r="O42" t="n">
-        <v>0</v>
-      </c>
-      <c r="P42" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q42" t="n">
-        <v>0</v>
-      </c>
-      <c r="R42" t="n">
-        <v>0</v>
-      </c>
-      <c r="S42" t="n">
-        <v>0</v>
-      </c>
-      <c r="T42" t="n">
-        <v>0</v>
-      </c>
-      <c r="U42" t="n">
-        <v>0</v>
-      </c>
-      <c r="V42" t="n">
-        <v>3.262548922260276</v>
-      </c>
-      <c r="W42" t="n">
-        <v>0</v>
-      </c>
       <c r="X42" t="n">
-        <v>3.262548922260276</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
         <v>0</v>
@@ -3963,10 +3963,10 @@
         <v>3.262548922260276</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>3.262548922260276</v>
       </c>
       <c r="Y43" t="n">
-        <v>3.262548922260276</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3979,7 +3979,7 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>3.262548922260276</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -3994,7 +3994,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>3.262548922260276</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4027,25 +4027,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>52.51403670113842</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>212.0456433386444</v>
+        <v>3.262548922260276</v>
       </c>
       <c r="U44" t="n">
-        <v>256.5237009191198</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>400.806900043077</v>
+        <v>2.873653090726851</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>342.0137385405339</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4055,25 +4055,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>120.0908620689655</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>105.3918965517241</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>94.13938596491228</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>93.17921052631581</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>82.55</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>83.81976830925504</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>34.44698820166514</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4106,25 +4106,25 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>49.60563018141188</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>126.0091317304331</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>174.5263742585036</v>
+        <v>2.873653090726851</v>
       </c>
       <c r="V45" t="n">
-        <v>197.1263427586206</v>
+        <v>3.262548922260276</v>
       </c>
       <c r="W45" t="n">
-        <v>183.4695267241379</v>
+        <v>3.262548922260276</v>
       </c>
       <c r="X45" t="n">
-        <v>153.3187614035088</v>
+        <v>3.262548922260276</v>
       </c>
       <c r="Y45" t="n">
-        <v>125.2209214285714</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -4134,19 +4134,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>189.9004325317972</v>
+        <v>3.262548922260276</v>
       </c>
       <c r="C46" t="n">
-        <v>170.8360944016073</v>
+        <v>2.873653090726851</v>
       </c>
       <c r="D46" t="n">
-        <v>164.2192128704925</v>
+        <v>3.262548922260276</v>
       </c>
       <c r="E46" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>174.9399834978613</v>
+        <v>3.262548922260276</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4185,10 +4185,10 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>147.2540575406698</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>139.6012844548725</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -4200,10 +4200,10 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -5965,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>13.05019568904111</v>
+        <v>9.75469172716204</v>
       </c>
       <c r="C23" t="n">
-        <v>9.75469172716204</v>
+        <v>6.852011837538957</v>
       </c>
       <c r="D23" t="n">
-        <v>6.459187765282973</v>
+        <v>6.852011837538957</v>
       </c>
       <c r="E23" t="n">
-        <v>3.163683803403905</v>
+        <v>6.852011837538957</v>
       </c>
       <c r="F23" t="n">
-        <v>3.163683803403905</v>
+        <v>6.852011837538957</v>
       </c>
       <c r="G23" t="n">
-        <v>0.2610039137808222</v>
+        <v>3.55650787565989</v>
       </c>
       <c r="H23" t="n">
         <v>0.2610039137808222</v>
@@ -5992,16 +5992,16 @@
         <v>1.160310701713749</v>
       </c>
       <c r="K23" t="n">
-        <v>2.50813845558963</v>
+        <v>2.508138455589629</v>
       </c>
       <c r="L23" t="n">
-        <v>4.180237967355346</v>
+        <v>4.180237967355345</v>
       </c>
       <c r="M23" t="n">
-        <v>6.040770853278585</v>
+        <v>6.040770853278584</v>
       </c>
       <c r="N23" t="n">
-        <v>7.931409106423309</v>
+        <v>7.931409106423307</v>
       </c>
       <c r="O23" t="n">
         <v>9.71668519667894</v>
@@ -6028,13 +6028,13 @@
         <v>13.05019568904111</v>
       </c>
       <c r="W23" t="n">
-        <v>13.05019568904111</v>
+        <v>9.75469172716204</v>
       </c>
       <c r="X23" t="n">
-        <v>13.05019568904111</v>
+        <v>9.75469172716204</v>
       </c>
       <c r="Y23" t="n">
-        <v>13.05019568904111</v>
+        <v>9.75469172716204</v>
       </c>
     </row>
     <row r="24">
@@ -6095,10 +6095,10 @@
         <v>13.05019568904111</v>
       </c>
       <c r="S24" t="n">
-        <v>9.75469172716204</v>
+        <v>13.05019568904111</v>
       </c>
       <c r="T24" t="n">
-        <v>9.75469172716204</v>
+        <v>13.05019568904111</v>
       </c>
       <c r="U24" t="n">
         <v>9.75469172716204</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.2610039137808222</v>
+        <v>6.852011837538957</v>
       </c>
       <c r="C25" t="n">
-        <v>0.2610039137808222</v>
+        <v>6.852011837538957</v>
       </c>
       <c r="D25" t="n">
-        <v>0.2610039137808222</v>
+        <v>6.852011837538957</v>
       </c>
       <c r="E25" t="n">
-        <v>0.2610039137808222</v>
+        <v>6.852011837538957</v>
       </c>
       <c r="F25" t="n">
-        <v>0.2610039137808222</v>
+        <v>6.852011837538957</v>
       </c>
       <c r="G25" t="n">
-        <v>0.2610039137808222</v>
+        <v>3.55650787565989</v>
       </c>
       <c r="H25" t="n">
         <v>0.2610039137808222</v>
@@ -6150,49 +6150,49 @@
         <v>0.5970352923692028</v>
       </c>
       <c r="K25" t="n">
-        <v>1.149238072150546</v>
+        <v>3.739547961900543</v>
       </c>
       <c r="L25" t="n">
-        <v>1.855867513507673</v>
+        <v>4.44617740325767</v>
       </c>
       <c r="M25" t="n">
-        <v>5.085790946545346</v>
+        <v>5.191219072410228</v>
       </c>
       <c r="N25" t="n">
-        <v>8.315714379583021</v>
+        <v>5.918545315920349</v>
       </c>
       <c r="O25" t="n">
-        <v>11.54563781262069</v>
+        <v>6.590348822965758</v>
       </c>
       <c r="P25" t="n">
-        <v>12.65220352905942</v>
+        <v>9.820272256003433</v>
       </c>
       <c r="Q25" t="n">
         <v>13.05019568904111</v>
       </c>
       <c r="R25" t="n">
-        <v>13.05019568904111</v>
+        <v>9.75469172716204</v>
       </c>
       <c r="S25" t="n">
-        <v>13.05019568904111</v>
+        <v>6.852011837538957</v>
       </c>
       <c r="T25" t="n">
-        <v>10.14751579941803</v>
+        <v>6.852011837538957</v>
       </c>
       <c r="U25" t="n">
         <v>6.852011837538957</v>
       </c>
       <c r="V25" t="n">
-        <v>3.55650787565989</v>
+        <v>6.852011837538957</v>
       </c>
       <c r="W25" t="n">
-        <v>0.2610039137808222</v>
+        <v>6.852011837538957</v>
       </c>
       <c r="X25" t="n">
-        <v>0.2610039137808222</v>
+        <v>6.852011837538957</v>
       </c>
       <c r="Y25" t="n">
-        <v>0.2610039137808222</v>
+        <v>6.852011837538957</v>
       </c>
     </row>
     <row r="26">
@@ -6202,28 +6202,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>6.852011837538956</v>
+        <v>0.2610039137808222</v>
       </c>
       <c r="C26" t="n">
-        <v>6.852011837538956</v>
+        <v>0.2610039137808222</v>
       </c>
       <c r="D26" t="n">
-        <v>6.852011837538956</v>
+        <v>0.2610039137808222</v>
       </c>
       <c r="E26" t="n">
-        <v>6.852011837538956</v>
+        <v>0.2610039137808222</v>
       </c>
       <c r="F26" t="n">
-        <v>6.852011837538956</v>
+        <v>0.2610039137808222</v>
       </c>
       <c r="G26" t="n">
-        <v>3.556507875659889</v>
+        <v>0.2610039137808222</v>
       </c>
       <c r="H26" t="n">
-        <v>0.2610039137808221</v>
+        <v>0.2610039137808222</v>
       </c>
       <c r="I26" t="n">
-        <v>0.2610039137808221</v>
+        <v>0.2610039137808222</v>
       </c>
       <c r="J26" t="n">
         <v>1.160310701713749</v>
@@ -6235,7 +6235,7 @@
         <v>4.180237967355345</v>
       </c>
       <c r="M26" t="n">
-        <v>6.040770853278583</v>
+        <v>6.040770853278584</v>
       </c>
       <c r="N26" t="n">
         <v>7.931409106423307</v>
@@ -6250,28 +6250,28 @@
         <v>12.38460615143387</v>
       </c>
       <c r="R26" t="n">
-        <v>13.05019568904111</v>
+        <v>13.0501956890411</v>
       </c>
       <c r="S26" t="n">
-        <v>13.05019568904111</v>
+        <v>13.0501956890411</v>
       </c>
       <c r="T26" t="n">
-        <v>13.05019568904111</v>
+        <v>9.754691727162037</v>
       </c>
       <c r="U26" t="n">
-        <v>9.754691727162038</v>
+        <v>6.459187765282969</v>
       </c>
       <c r="V26" t="n">
-        <v>9.754691727162038</v>
+        <v>3.163683803403902</v>
       </c>
       <c r="W26" t="n">
-        <v>9.754691727162038</v>
+        <v>0.2610039137808222</v>
       </c>
       <c r="X26" t="n">
-        <v>6.852011837538956</v>
+        <v>0.2610039137808222</v>
       </c>
       <c r="Y26" t="n">
-        <v>6.852011837538956</v>
+        <v>0.2610039137808222</v>
       </c>
     </row>
     <row r="27">
@@ -6281,25 +6281,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.2610039137808221</v>
+        <v>0.2610039137808222</v>
       </c>
       <c r="C27" t="n">
-        <v>0.2610039137808221</v>
+        <v>0.2610039137808222</v>
       </c>
       <c r="D27" t="n">
-        <v>0.2610039137808221</v>
+        <v>0.2610039137808222</v>
       </c>
       <c r="E27" t="n">
-        <v>0.2610039137808221</v>
+        <v>0.2610039137808222</v>
       </c>
       <c r="F27" t="n">
-        <v>0.2610039137808221</v>
+        <v>0.2610039137808222</v>
       </c>
       <c r="G27" t="n">
-        <v>0.2610039137808221</v>
+        <v>0.2610039137808222</v>
       </c>
       <c r="H27" t="n">
-        <v>0.2610039137808221</v>
+        <v>0.2610039137808222</v>
       </c>
       <c r="I27" t="n">
         <v>0.4561956203818616</v>
@@ -6326,7 +6326,7 @@
         <v>8.480613706900034</v>
       </c>
       <c r="Q27" t="n">
-        <v>9.820272256003433</v>
+        <v>11.71053713993771</v>
       </c>
       <c r="R27" t="n">
         <v>13.05019568904111</v>
@@ -6335,22 +6335,22 @@
         <v>13.05019568904111</v>
       </c>
       <c r="T27" t="n">
-        <v>10.14751579941802</v>
+        <v>9.75469172716204</v>
       </c>
       <c r="U27" t="n">
-        <v>6.852011837538956</v>
+        <v>6.459187765282973</v>
       </c>
       <c r="V27" t="n">
-        <v>3.556507875659889</v>
+        <v>6.459187765282973</v>
       </c>
       <c r="W27" t="n">
-        <v>0.2610039137808221</v>
+        <v>3.163683803403905</v>
       </c>
       <c r="X27" t="n">
-        <v>0.2610039137808221</v>
+        <v>0.2610039137808222</v>
       </c>
       <c r="Y27" t="n">
-        <v>0.2610039137808221</v>
+        <v>0.2610039137808222</v>
       </c>
     </row>
     <row r="28">
@@ -6360,31 +6360,31 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>9.754691727162038</v>
+        <v>6.459187765282973</v>
       </c>
       <c r="C28" t="n">
-        <v>6.459187765282971</v>
+        <v>6.459187765282973</v>
       </c>
       <c r="D28" t="n">
-        <v>6.459187765282971</v>
+        <v>3.163683803403905</v>
       </c>
       <c r="E28" t="n">
-        <v>3.556507875659889</v>
+        <v>3.163683803403905</v>
       </c>
       <c r="F28" t="n">
-        <v>0.2610039137808221</v>
+        <v>3.163683803403905</v>
       </c>
       <c r="G28" t="n">
-        <v>0.2610039137808221</v>
+        <v>3.163683803403905</v>
       </c>
       <c r="H28" t="n">
-        <v>0.2610039137808221</v>
+        <v>0.2610039137808222</v>
       </c>
       <c r="I28" t="n">
-        <v>0.2610039137808221</v>
+        <v>0.2610039137808222</v>
       </c>
       <c r="J28" t="n">
-        <v>0.5970352923692027</v>
+        <v>0.5970352923692028</v>
       </c>
       <c r="K28" t="n">
         <v>1.149238072150546</v>
@@ -6393,13 +6393,13 @@
         <v>1.855867513507673</v>
       </c>
       <c r="M28" t="n">
-        <v>2.633099146417964</v>
+        <v>2.600909182660231</v>
       </c>
       <c r="N28" t="n">
-        <v>3.360425389928086</v>
+        <v>5.830832615697904</v>
       </c>
       <c r="O28" t="n">
-        <v>6.590348822965759</v>
+        <v>9.060756048735579</v>
       </c>
       <c r="P28" t="n">
         <v>9.820272256003433</v>
@@ -6408,28 +6408,28 @@
         <v>13.05019568904111</v>
       </c>
       <c r="R28" t="n">
-        <v>13.05019568904111</v>
+        <v>9.75469172716204</v>
       </c>
       <c r="S28" t="n">
-        <v>13.05019568904111</v>
+        <v>6.459187765282973</v>
       </c>
       <c r="T28" t="n">
-        <v>13.05019568904111</v>
+        <v>6.459187765282973</v>
       </c>
       <c r="U28" t="n">
-        <v>13.05019568904111</v>
+        <v>6.459187765282973</v>
       </c>
       <c r="V28" t="n">
-        <v>13.05019568904111</v>
+        <v>6.459187765282973</v>
       </c>
       <c r="W28" t="n">
-        <v>9.754691727162038</v>
+        <v>6.459187765282973</v>
       </c>
       <c r="X28" t="n">
-        <v>9.754691727162038</v>
+        <v>6.459187765282973</v>
       </c>
       <c r="Y28" t="n">
-        <v>9.754691727162038</v>
+        <v>6.459187765282973</v>
       </c>
     </row>
     <row r="29">
@@ -6439,28 +6439,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>6.459187765282971</v>
+        <v>3.55650787565989</v>
       </c>
       <c r="C29" t="n">
-        <v>6.459187765282971</v>
+        <v>0.2610039137808222</v>
       </c>
       <c r="D29" t="n">
-        <v>6.459187765282971</v>
+        <v>0.2610039137808222</v>
       </c>
       <c r="E29" t="n">
-        <v>3.556507875659889</v>
+        <v>0.2610039137808222</v>
       </c>
       <c r="F29" t="n">
-        <v>3.556507875659889</v>
+        <v>0.2610039137808222</v>
       </c>
       <c r="G29" t="n">
-        <v>0.2610039137808221</v>
+        <v>0.2610039137808222</v>
       </c>
       <c r="H29" t="n">
-        <v>0.2610039137808221</v>
+        <v>0.2610039137808222</v>
       </c>
       <c r="I29" t="n">
-        <v>0.2610039137808221</v>
+        <v>0.2610039137808222</v>
       </c>
       <c r="J29" t="n">
         <v>1.160310701713749</v>
@@ -6487,28 +6487,28 @@
         <v>12.38460615143387</v>
       </c>
       <c r="R29" t="n">
-        <v>13.05019568904111</v>
+        <v>13.0501956890411</v>
       </c>
       <c r="S29" t="n">
-        <v>9.754691727162038</v>
+        <v>13.0501956890411</v>
       </c>
       <c r="T29" t="n">
-        <v>6.459187765282971</v>
+        <v>13.0501956890411</v>
       </c>
       <c r="U29" t="n">
-        <v>6.459187765282971</v>
+        <v>10.14751579941803</v>
       </c>
       <c r="V29" t="n">
-        <v>6.459187765282971</v>
+        <v>6.852011837538957</v>
       </c>
       <c r="W29" t="n">
-        <v>6.459187765282971</v>
+        <v>3.55650787565989</v>
       </c>
       <c r="X29" t="n">
-        <v>6.459187765282971</v>
+        <v>3.55650787565989</v>
       </c>
       <c r="Y29" t="n">
-        <v>6.459187765282971</v>
+        <v>3.55650787565989</v>
       </c>
     </row>
     <row r="30">
@@ -6518,49 +6518,49 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>6.459187765282971</v>
+        <v>9.75469172716204</v>
       </c>
       <c r="C30" t="n">
-        <v>6.459187765282971</v>
+        <v>6.459187765282973</v>
       </c>
       <c r="D30" t="n">
-        <v>6.459187765282971</v>
+        <v>6.459187765282973</v>
       </c>
       <c r="E30" t="n">
-        <v>3.556507875659889</v>
+        <v>6.459187765282973</v>
       </c>
       <c r="F30" t="n">
-        <v>3.556507875659889</v>
+        <v>3.163683803403905</v>
       </c>
       <c r="G30" t="n">
-        <v>3.556507875659889</v>
+        <v>0.2610039137808222</v>
       </c>
       <c r="H30" t="n">
-        <v>0.2610039137808221</v>
+        <v>0.2610039137808222</v>
       </c>
       <c r="I30" t="n">
-        <v>1.072177809113711</v>
+        <v>0.4561956203818616</v>
       </c>
       <c r="J30" t="n">
-        <v>1.607798771138296</v>
+        <v>0.9918165824064465</v>
       </c>
       <c r="K30" t="n">
-        <v>2.523260307689948</v>
+        <v>1.907278118958099</v>
       </c>
       <c r="L30" t="n">
-        <v>3.754211318554211</v>
+        <v>3.138229129822361</v>
       </c>
       <c r="M30" t="n">
-        <v>5.190673088024536</v>
+        <v>4.574690899292685</v>
       </c>
       <c r="N30" t="n">
-        <v>6.665153726207343</v>
+        <v>6.049171537475493</v>
       </c>
       <c r="O30" t="n">
-        <v>8.014015446969966</v>
+        <v>7.398033258238114</v>
       </c>
       <c r="P30" t="n">
-        <v>9.096595895631884</v>
+        <v>8.480613706900034</v>
       </c>
       <c r="Q30" t="n">
         <v>9.820272256003433</v>
@@ -6569,25 +6569,25 @@
         <v>13.05019568904111</v>
       </c>
       <c r="S30" t="n">
-        <v>9.754691727162038</v>
+        <v>13.05019568904111</v>
       </c>
       <c r="T30" t="n">
-        <v>9.754691727162038</v>
+        <v>13.05019568904111</v>
       </c>
       <c r="U30" t="n">
-        <v>9.754691727162038</v>
+        <v>13.05019568904111</v>
       </c>
       <c r="V30" t="n">
-        <v>6.459187765282971</v>
+        <v>9.75469172716204</v>
       </c>
       <c r="W30" t="n">
-        <v>6.459187765282971</v>
+        <v>9.75469172716204</v>
       </c>
       <c r="X30" t="n">
-        <v>6.459187765282971</v>
+        <v>9.75469172716204</v>
       </c>
       <c r="Y30" t="n">
-        <v>6.459187765282971</v>
+        <v>9.75469172716204</v>
       </c>
     </row>
     <row r="31">
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3.163683803403904</v>
+        <v>6.852011837538957</v>
       </c>
       <c r="C31" t="n">
-        <v>3.163683803403904</v>
+        <v>6.852011837538957</v>
       </c>
       <c r="D31" t="n">
-        <v>3.163683803403904</v>
+        <v>3.55650787565989</v>
       </c>
       <c r="E31" t="n">
-        <v>3.163683803403904</v>
+        <v>3.55650787565989</v>
       </c>
       <c r="F31" t="n">
-        <v>3.163683803403904</v>
+        <v>3.55650787565989</v>
       </c>
       <c r="G31" t="n">
-        <v>0.2610039137808221</v>
+        <v>0.2610039137808222</v>
       </c>
       <c r="H31" t="n">
-        <v>0.2610039137808221</v>
+        <v>0.2610039137808222</v>
       </c>
       <c r="I31" t="n">
-        <v>0.2610039137808221</v>
+        <v>0.2610039137808222</v>
       </c>
       <c r="J31" t="n">
-        <v>0.5970352923692027</v>
+        <v>0.5970352923692028</v>
       </c>
       <c r="K31" t="n">
-        <v>1.149238072150546</v>
+        <v>3.826958725406877</v>
       </c>
       <c r="L31" t="n">
-        <v>1.855867513507673</v>
+        <v>7.056882158444551</v>
       </c>
       <c r="M31" t="n">
-        <v>2.633099146417964</v>
+        <v>7.801923827597109</v>
       </c>
       <c r="N31" t="n">
-        <v>3.360425389928086</v>
+        <v>8.529250071107231</v>
       </c>
       <c r="O31" t="n">
-        <v>6.590348822965759</v>
+        <v>11.7591735041449</v>
       </c>
       <c r="P31" t="n">
-        <v>9.820272256003433</v>
+        <v>12.65220352905942</v>
       </c>
       <c r="Q31" t="n">
         <v>13.05019568904111</v>
       </c>
       <c r="R31" t="n">
-        <v>9.754691727162038</v>
+        <v>13.05019568904111</v>
       </c>
       <c r="S31" t="n">
-        <v>6.459187765282971</v>
+        <v>13.05019568904111</v>
       </c>
       <c r="T31" t="n">
-        <v>6.459187765282971</v>
+        <v>13.05019568904111</v>
       </c>
       <c r="U31" t="n">
-        <v>6.459187765282971</v>
+        <v>9.75469172716204</v>
       </c>
       <c r="V31" t="n">
-        <v>3.163683803403904</v>
+        <v>6.852011837538957</v>
       </c>
       <c r="W31" t="n">
-        <v>3.163683803403904</v>
+        <v>6.852011837538957</v>
       </c>
       <c r="X31" t="n">
-        <v>3.163683803403904</v>
+        <v>6.852011837538957</v>
       </c>
       <c r="Y31" t="n">
-        <v>3.163683803403904</v>
+        <v>6.852011837538957</v>
       </c>
     </row>
     <row r="32">
@@ -6676,28 +6676,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>3.556507875659889</v>
+        <v>0.2610039137808222</v>
       </c>
       <c r="C32" t="n">
-        <v>3.556507875659889</v>
+        <v>0.2610039137808222</v>
       </c>
       <c r="D32" t="n">
-        <v>3.556507875659889</v>
+        <v>0.2610039137808222</v>
       </c>
       <c r="E32" t="n">
-        <v>3.556507875659889</v>
+        <v>0.2610039137808222</v>
       </c>
       <c r="F32" t="n">
-        <v>3.556507875659889</v>
+        <v>0.2610039137808222</v>
       </c>
       <c r="G32" t="n">
-        <v>0.2610039137808221</v>
+        <v>0.2610039137808222</v>
       </c>
       <c r="H32" t="n">
-        <v>0.2610039137808221</v>
+        <v>0.2610039137808222</v>
       </c>
       <c r="I32" t="n">
-        <v>0.2610039137808221</v>
+        <v>0.2610039137808222</v>
       </c>
       <c r="J32" t="n">
         <v>1.160310701713749</v>
@@ -6724,28 +6724,28 @@
         <v>12.38460615143387</v>
       </c>
       <c r="R32" t="n">
-        <v>13.05019568904111</v>
+        <v>13.0501956890411</v>
       </c>
       <c r="S32" t="n">
-        <v>10.14751579941802</v>
+        <v>13.0501956890411</v>
       </c>
       <c r="T32" t="n">
-        <v>10.14751579941802</v>
+        <v>13.0501956890411</v>
       </c>
       <c r="U32" t="n">
-        <v>6.852011837538956</v>
+        <v>13.0501956890411</v>
       </c>
       <c r="V32" t="n">
-        <v>3.556507875659889</v>
+        <v>9.754691727162037</v>
       </c>
       <c r="W32" t="n">
-        <v>3.556507875659889</v>
+        <v>6.459187765282969</v>
       </c>
       <c r="X32" t="n">
-        <v>3.556507875659889</v>
+        <v>3.163683803403902</v>
       </c>
       <c r="Y32" t="n">
-        <v>3.556507875659889</v>
+        <v>0.2610039137808222</v>
       </c>
     </row>
     <row r="33">
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3.163683803403904</v>
+        <v>6.852011837538957</v>
       </c>
       <c r="C33" t="n">
-        <v>3.163683803403904</v>
+        <v>6.852011837538957</v>
       </c>
       <c r="D33" t="n">
-        <v>3.163683803403904</v>
+        <v>3.55650787565989</v>
       </c>
       <c r="E33" t="n">
-        <v>3.163683803403904</v>
+        <v>0.2610039137808222</v>
       </c>
       <c r="F33" t="n">
-        <v>3.163683803403904</v>
+        <v>0.2610039137808222</v>
       </c>
       <c r="G33" t="n">
-        <v>0.2610039137808221</v>
+        <v>0.2610039137808222</v>
       </c>
       <c r="H33" t="n">
-        <v>0.2610039137808221</v>
+        <v>0.2610039137808222</v>
       </c>
       <c r="I33" t="n">
         <v>0.4561956203818616</v>
       </c>
       <c r="J33" t="n">
-        <v>0.9918165824064465</v>
+        <v>3.686119053419536</v>
       </c>
       <c r="K33" t="n">
-        <v>1.907278118958099</v>
+        <v>5.401192174021341</v>
       </c>
       <c r="L33" t="n">
-        <v>3.138229129822361</v>
+        <v>6.632143184885604</v>
       </c>
       <c r="M33" t="n">
-        <v>4.574690899292685</v>
+        <v>8.068604954355928</v>
       </c>
       <c r="N33" t="n">
-        <v>6.049171537475493</v>
+        <v>9.543085592538736</v>
       </c>
       <c r="O33" t="n">
-        <v>7.398033258238114</v>
+        <v>10.89194731330136</v>
       </c>
       <c r="P33" t="n">
-        <v>8.480613706900034</v>
+        <v>11.97452776196328</v>
       </c>
       <c r="Q33" t="n">
-        <v>11.71053713993771</v>
+        <v>12.69820412233483</v>
       </c>
       <c r="R33" t="n">
         <v>13.05019568904111</v>
       </c>
       <c r="S33" t="n">
-        <v>9.754691727162038</v>
+        <v>13.05019568904111</v>
       </c>
       <c r="T33" t="n">
-        <v>9.754691727162038</v>
+        <v>13.05019568904111</v>
       </c>
       <c r="U33" t="n">
-        <v>9.754691727162038</v>
+        <v>13.05019568904111</v>
       </c>
       <c r="V33" t="n">
-        <v>6.459187765282971</v>
+        <v>10.14751579941803</v>
       </c>
       <c r="W33" t="n">
-        <v>6.459187765282971</v>
+        <v>10.14751579941803</v>
       </c>
       <c r="X33" t="n">
-        <v>6.459187765282971</v>
+        <v>10.14751579941803</v>
       </c>
       <c r="Y33" t="n">
-        <v>6.459187765282971</v>
+        <v>6.852011837538957</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3.163683803403904</v>
+        <v>6.852011837538957</v>
       </c>
       <c r="C34" t="n">
-        <v>0.2610039137808221</v>
+        <v>6.852011837538957</v>
       </c>
       <c r="D34" t="n">
-        <v>0.2610039137808221</v>
+        <v>3.55650787565989</v>
       </c>
       <c r="E34" t="n">
-        <v>0.2610039137808221</v>
+        <v>0.2610039137808222</v>
       </c>
       <c r="F34" t="n">
-        <v>0.2610039137808221</v>
+        <v>0.2610039137808222</v>
       </c>
       <c r="G34" t="n">
-        <v>0.2610039137808221</v>
+        <v>0.2610039137808222</v>
       </c>
       <c r="H34" t="n">
-        <v>0.2610039137808221</v>
+        <v>0.2610039137808222</v>
       </c>
       <c r="I34" t="n">
-        <v>0.2610039137808221</v>
+        <v>0.2610039137808222</v>
       </c>
       <c r="J34" t="n">
-        <v>0.5970352923692027</v>
+        <v>3.490927346818496</v>
       </c>
       <c r="K34" t="n">
-        <v>1.149238072150546</v>
+        <v>4.043130126599839</v>
       </c>
       <c r="L34" t="n">
-        <v>4.379161505188219</v>
+        <v>7.101256878375861</v>
       </c>
       <c r="M34" t="n">
-        <v>7.609084938225893</v>
+        <v>7.84629854752842</v>
       </c>
       <c r="N34" t="n">
-        <v>10.83900837126357</v>
+        <v>8.57362479103854</v>
       </c>
       <c r="O34" t="n">
-        <v>12.07735957113994</v>
+        <v>9.245428298083949</v>
       </c>
       <c r="P34" t="n">
-        <v>12.65220352905942</v>
+        <v>9.820272256003433</v>
       </c>
       <c r="Q34" t="n">
         <v>13.05019568904111</v>
       </c>
       <c r="R34" t="n">
-        <v>13.05019568904111</v>
+        <v>10.14751579941803</v>
       </c>
       <c r="S34" t="n">
-        <v>9.754691727162038</v>
+        <v>10.14751579941803</v>
       </c>
       <c r="T34" t="n">
-        <v>6.459187765282971</v>
+        <v>10.14751579941803</v>
       </c>
       <c r="U34" t="n">
-        <v>6.459187765282971</v>
+        <v>6.852011837538957</v>
       </c>
       <c r="V34" t="n">
-        <v>3.163683803403904</v>
+        <v>6.852011837538957</v>
       </c>
       <c r="W34" t="n">
-        <v>3.163683803403904</v>
+        <v>6.852011837538957</v>
       </c>
       <c r="X34" t="n">
-        <v>3.163683803403904</v>
+        <v>6.852011837538957</v>
       </c>
       <c r="Y34" t="n">
-        <v>3.163683803403904</v>
+        <v>6.852011837538957</v>
       </c>
     </row>
     <row r="35">
@@ -6913,16 +6913,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>6.459187765282971</v>
+        <v>3.556507875659889</v>
       </c>
       <c r="C35" t="n">
-        <v>6.459187765282971</v>
+        <v>3.556507875659889</v>
       </c>
       <c r="D35" t="n">
-        <v>6.459187765282971</v>
+        <v>0.2610039137808221</v>
       </c>
       <c r="E35" t="n">
-        <v>3.556507875659889</v>
+        <v>0.2610039137808221</v>
       </c>
       <c r="F35" t="n">
         <v>0.2610039137808221</v>
@@ -6940,7 +6940,7 @@
         <v>1.160310701713749</v>
       </c>
       <c r="K35" t="n">
-        <v>2.508138455589629</v>
+        <v>2.50813845558963</v>
       </c>
       <c r="L35" t="n">
         <v>4.180237967355345</v>
@@ -6961,28 +6961,28 @@
         <v>12.38460615143387</v>
       </c>
       <c r="R35" t="n">
-        <v>13.05019568904111</v>
+        <v>13.0501956890411</v>
       </c>
       <c r="S35" t="n">
-        <v>13.05019568904111</v>
+        <v>13.0501956890411</v>
       </c>
       <c r="T35" t="n">
-        <v>9.754691727162038</v>
+        <v>9.754691727162037</v>
       </c>
       <c r="U35" t="n">
-        <v>6.459187765282971</v>
+        <v>9.754691727162037</v>
       </c>
       <c r="V35" t="n">
-        <v>6.459187765282971</v>
+        <v>9.754691727162037</v>
       </c>
       <c r="W35" t="n">
-        <v>6.459187765282971</v>
+        <v>9.754691727162037</v>
       </c>
       <c r="X35" t="n">
-        <v>6.459187765282971</v>
+        <v>6.459187765282969</v>
       </c>
       <c r="Y35" t="n">
-        <v>6.459187765282971</v>
+        <v>6.459187765282969</v>
       </c>
     </row>
     <row r="36">
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>3.163683803403904</v>
+        <v>6.459187765282969</v>
       </c>
       <c r="C36" t="n">
-        <v>3.163683803403904</v>
+        <v>6.459187765282969</v>
       </c>
       <c r="D36" t="n">
-        <v>3.163683803403904</v>
+        <v>6.459187765282969</v>
       </c>
       <c r="E36" t="n">
-        <v>3.163683803403904</v>
+        <v>3.556507875659889</v>
       </c>
       <c r="F36" t="n">
-        <v>3.163683803403904</v>
+        <v>0.2610039137808221</v>
       </c>
       <c r="G36" t="n">
-        <v>3.163683803403904</v>
+        <v>0.2610039137808221</v>
       </c>
       <c r="H36" t="n">
         <v>0.2610039137808221</v>
       </c>
       <c r="I36" t="n">
-        <v>0.4561956203818616</v>
+        <v>3.490927346818495</v>
       </c>
       <c r="J36" t="n">
-        <v>3.686119053419535</v>
+        <v>4.485730637469686</v>
       </c>
       <c r="K36" t="n">
-        <v>4.601580589971188</v>
+        <v>5.401192174021338</v>
       </c>
       <c r="L36" t="n">
-        <v>5.832531600835449</v>
+        <v>6.6321431848856</v>
       </c>
       <c r="M36" t="n">
-        <v>7.268993370305775</v>
+        <v>8.068604954355925</v>
       </c>
       <c r="N36" t="n">
-        <v>8.743474008488581</v>
+        <v>9.543085592538732</v>
       </c>
       <c r="O36" t="n">
-        <v>10.0923357292512</v>
+        <v>10.89194731330135</v>
       </c>
       <c r="P36" t="n">
-        <v>11.17491617791312</v>
+        <v>11.97452776196327</v>
       </c>
       <c r="Q36" t="n">
-        <v>11.89859253828467</v>
+        <v>12.69820412233482</v>
       </c>
       <c r="R36" t="n">
-        <v>13.05019568904111</v>
+        <v>13.0501956890411</v>
       </c>
       <c r="S36" t="n">
-        <v>9.754691727162038</v>
+        <v>13.0501956890411</v>
       </c>
       <c r="T36" t="n">
-        <v>9.754691727162038</v>
+        <v>13.0501956890411</v>
       </c>
       <c r="U36" t="n">
-        <v>9.754691727162038</v>
+        <v>13.0501956890411</v>
       </c>
       <c r="V36" t="n">
-        <v>6.459187765282971</v>
+        <v>9.754691727162037</v>
       </c>
       <c r="W36" t="n">
-        <v>6.459187765282971</v>
+        <v>6.459187765282969</v>
       </c>
       <c r="X36" t="n">
-        <v>6.459187765282971</v>
+        <v>6.459187765282969</v>
       </c>
       <c r="Y36" t="n">
-        <v>6.459187765282971</v>
+        <v>6.459187765282969</v>
       </c>
     </row>
     <row r="37">
@@ -7095,43 +7095,43 @@
         <v>0.2610039137808221</v>
       </c>
       <c r="J37" t="n">
-        <v>3.490927346818495</v>
+        <v>0.5970352923692027</v>
       </c>
       <c r="K37" t="n">
-        <v>6.720850779856169</v>
+        <v>1.149238072150546</v>
       </c>
       <c r="L37" t="n">
-        <v>7.427480221213296</v>
+        <v>4.379161505188218</v>
       </c>
       <c r="M37" t="n">
-        <v>10.65740365425097</v>
+        <v>5.124203174340777</v>
       </c>
       <c r="N37" t="n">
-        <v>11.38472989776109</v>
+        <v>5.851529417850898</v>
       </c>
       <c r="O37" t="n">
-        <v>12.0565334048065</v>
+        <v>9.081452850888571</v>
       </c>
       <c r="P37" t="n">
-        <v>12.63137736272598</v>
+        <v>12.31137628392624</v>
       </c>
       <c r="Q37" t="n">
-        <v>13.05019568904111</v>
+        <v>13.0501956890411</v>
       </c>
       <c r="R37" t="n">
-        <v>13.05019568904111</v>
+        <v>9.754691727162037</v>
       </c>
       <c r="S37" t="n">
-        <v>10.14751579941802</v>
+        <v>9.754691727162037</v>
       </c>
       <c r="T37" t="n">
-        <v>10.14751579941802</v>
+        <v>6.459187765282969</v>
       </c>
       <c r="U37" t="n">
-        <v>6.852011837538956</v>
+        <v>3.163683803403903</v>
       </c>
       <c r="V37" t="n">
-        <v>3.556507875659889</v>
+        <v>0.2610039137808221</v>
       </c>
       <c r="W37" t="n">
         <v>0.2610039137808221</v>
@@ -7150,46 +7150,46 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>3.55650787565989</v>
+        <v>3.556507875659889</v>
       </c>
       <c r="C38" t="n">
-        <v>0.2610039137808222</v>
+        <v>3.556507875659889</v>
       </c>
       <c r="D38" t="n">
-        <v>0.2610039137808222</v>
+        <v>3.556507875659889</v>
       </c>
       <c r="E38" t="n">
-        <v>0.2610039137808222</v>
+        <v>3.556507875659889</v>
       </c>
       <c r="F38" t="n">
-        <v>0.2610039137808222</v>
+        <v>3.556507875659889</v>
       </c>
       <c r="G38" t="n">
-        <v>0.2610039137808222</v>
+        <v>3.556507875659889</v>
       </c>
       <c r="H38" t="n">
-        <v>0.2610039137808222</v>
+        <v>0.2610039137808221</v>
       </c>
       <c r="I38" t="n">
-        <v>0.2610039137808234</v>
+        <v>0.2610039137808221</v>
       </c>
       <c r="J38" t="n">
-        <v>1.16031070171375</v>
+        <v>1.160310701713749</v>
       </c>
       <c r="K38" t="n">
-        <v>2.508138455589631</v>
+        <v>2.50813845558963</v>
       </c>
       <c r="L38" t="n">
-        <v>4.180237967355347</v>
+        <v>4.180237967355345</v>
       </c>
       <c r="M38" t="n">
-        <v>6.040770853278586</v>
+        <v>6.040770853278584</v>
       </c>
       <c r="N38" t="n">
-        <v>7.931409106423309</v>
+        <v>7.931409106423307</v>
       </c>
       <c r="O38" t="n">
-        <v>9.71668519667894</v>
+        <v>9.716685196678938</v>
       </c>
       <c r="P38" t="n">
         <v>11.24037703589</v>
@@ -7198,28 +7198,28 @@
         <v>12.38460615143387</v>
       </c>
       <c r="R38" t="n">
-        <v>13.05019568904111</v>
+        <v>13.0501956890411</v>
       </c>
       <c r="S38" t="n">
-        <v>13.05019568904111</v>
+        <v>13.0501956890411</v>
       </c>
       <c r="T38" t="n">
-        <v>9.75469172716204</v>
+        <v>10.14751579941802</v>
       </c>
       <c r="U38" t="n">
-        <v>9.75469172716204</v>
+        <v>6.852011837538956</v>
       </c>
       <c r="V38" t="n">
-        <v>6.459187765282973</v>
+        <v>3.556507875659889</v>
       </c>
       <c r="W38" t="n">
-        <v>6.459187765282973</v>
+        <v>3.556507875659889</v>
       </c>
       <c r="X38" t="n">
-        <v>6.459187765282973</v>
+        <v>3.556507875659889</v>
       </c>
       <c r="Y38" t="n">
-        <v>6.459187765282973</v>
+        <v>3.556507875659889</v>
       </c>
     </row>
     <row r="39">
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.2610039137808222</v>
+        <v>6.852011837538956</v>
       </c>
       <c r="C39" t="n">
-        <v>0.2610039137808222</v>
+        <v>6.852011837538956</v>
       </c>
       <c r="D39" t="n">
-        <v>0.2610039137808222</v>
+        <v>6.852011837538956</v>
       </c>
       <c r="E39" t="n">
-        <v>0.2610039137808222</v>
+        <v>6.852011837538956</v>
       </c>
       <c r="F39" t="n">
-        <v>0.2610039137808222</v>
+        <v>3.556507875659889</v>
       </c>
       <c r="G39" t="n">
-        <v>0.2610039137808222</v>
+        <v>3.556507875659889</v>
       </c>
       <c r="H39" t="n">
-        <v>0.2610039137808222</v>
+        <v>0.2610039137808221</v>
       </c>
       <c r="I39" t="n">
-        <v>3.490927346818496</v>
+        <v>3.490927346818495</v>
       </c>
       <c r="J39" t="n">
-        <v>4.48573063746969</v>
+        <v>4.02654830884308</v>
       </c>
       <c r="K39" t="n">
-        <v>5.401192174021341</v>
+        <v>4.942009845394732</v>
       </c>
       <c r="L39" t="n">
-        <v>6.632143184885604</v>
+        <v>6.172960856258994</v>
       </c>
       <c r="M39" t="n">
-        <v>8.068604954355928</v>
+        <v>7.609422625729319</v>
       </c>
       <c r="N39" t="n">
-        <v>9.543085592538736</v>
+        <v>9.083903263912127</v>
       </c>
       <c r="O39" t="n">
-        <v>10.89194731330136</v>
+        <v>10.43276498467475</v>
       </c>
       <c r="P39" t="n">
-        <v>11.97452776196328</v>
+        <v>11.51534543333667</v>
       </c>
       <c r="Q39" t="n">
-        <v>12.69820412233483</v>
+        <v>12.69820412233482</v>
       </c>
       <c r="R39" t="n">
-        <v>13.05019568904111</v>
+        <v>13.0501956890411</v>
       </c>
       <c r="S39" t="n">
-        <v>13.05019568904111</v>
+        <v>13.0501956890411</v>
       </c>
       <c r="T39" t="n">
-        <v>13.05019568904111</v>
+        <v>13.0501956890411</v>
       </c>
       <c r="U39" t="n">
-        <v>13.05019568904111</v>
+        <v>13.0501956890411</v>
       </c>
       <c r="V39" t="n">
-        <v>9.75469172716204</v>
+        <v>10.14751579941802</v>
       </c>
       <c r="W39" t="n">
-        <v>6.459187765282973</v>
+        <v>10.14751579941802</v>
       </c>
       <c r="X39" t="n">
-        <v>3.163683803403905</v>
+        <v>10.14751579941802</v>
       </c>
       <c r="Y39" t="n">
-        <v>0.2610039137808222</v>
+        <v>6.852011837538956</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3.55650787565989</v>
+        <v>0.2610039137808221</v>
       </c>
       <c r="C40" t="n">
-        <v>3.55650787565989</v>
+        <v>0.2610039137808221</v>
       </c>
       <c r="D40" t="n">
-        <v>3.55650787565989</v>
+        <v>0.2610039137808221</v>
       </c>
       <c r="E40" t="n">
-        <v>3.55650787565989</v>
+        <v>0.2610039137808221</v>
       </c>
       <c r="F40" t="n">
-        <v>0.2610039137808222</v>
+        <v>0.2610039137808221</v>
       </c>
       <c r="G40" t="n">
-        <v>0.2610039137808222</v>
+        <v>0.2610039137808221</v>
       </c>
       <c r="H40" t="n">
-        <v>0.2610039137808222</v>
+        <v>0.2610039137808221</v>
       </c>
       <c r="I40" t="n">
-        <v>0.2610039137808222</v>
+        <v>0.2610039137808221</v>
       </c>
       <c r="J40" t="n">
-        <v>0.5970352923692028</v>
+        <v>3.490927346818495</v>
       </c>
       <c r="K40" t="n">
-        <v>3.826958725406877</v>
+        <v>6.39462743701873</v>
       </c>
       <c r="L40" t="n">
-        <v>4.533588166764004</v>
+        <v>7.101256878375858</v>
       </c>
       <c r="M40" t="n">
-        <v>5.278629835916563</v>
+        <v>7.846298547528416</v>
       </c>
       <c r="N40" t="n">
-        <v>6.005956079426684</v>
+        <v>8.573624791038538</v>
       </c>
       <c r="O40" t="n">
-        <v>6.677759586472093</v>
+        <v>9.245428298083947</v>
       </c>
       <c r="P40" t="n">
-        <v>9.820272256003433</v>
+        <v>9.820272256003431</v>
       </c>
       <c r="Q40" t="n">
-        <v>13.05019568904111</v>
+        <v>13.0501956890411</v>
       </c>
       <c r="R40" t="n">
-        <v>10.14751579941803</v>
+        <v>10.14751579941802</v>
       </c>
       <c r="S40" t="n">
-        <v>10.14751579941803</v>
+        <v>10.14751579941802</v>
       </c>
       <c r="T40" t="n">
-        <v>10.14751579941803</v>
+        <v>10.14751579941802</v>
       </c>
       <c r="U40" t="n">
-        <v>10.14751579941803</v>
+        <v>10.14751579941802</v>
       </c>
       <c r="V40" t="n">
-        <v>10.14751579941803</v>
+        <v>6.852011837538956</v>
       </c>
       <c r="W40" t="n">
-        <v>6.852011837538957</v>
+        <v>3.556507875659889</v>
       </c>
       <c r="X40" t="n">
-        <v>3.55650787565989</v>
+        <v>0.2610039137808221</v>
       </c>
       <c r="Y40" t="n">
-        <v>3.55650787565989</v>
+        <v>0.2610039137808221</v>
       </c>
     </row>
     <row r="41">
@@ -7387,19 +7387,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>3.163683803403904</v>
+        <v>6.852011837538956</v>
       </c>
       <c r="C41" t="n">
-        <v>3.163683803403904</v>
+        <v>6.852011837538956</v>
       </c>
       <c r="D41" t="n">
-        <v>3.163683803403904</v>
+        <v>6.852011837538956</v>
       </c>
       <c r="E41" t="n">
-        <v>3.163683803403904</v>
+        <v>6.852011837538956</v>
       </c>
       <c r="F41" t="n">
-        <v>3.163683803403904</v>
+        <v>3.556507875659889</v>
       </c>
       <c r="G41" t="n">
         <v>0.2610039137808221</v>
@@ -7414,19 +7414,19 @@
         <v>1.160310701713749</v>
       </c>
       <c r="K41" t="n">
-        <v>2.508138455589629</v>
+        <v>2.50813845558963</v>
       </c>
       <c r="L41" t="n">
         <v>4.180237967355345</v>
       </c>
       <c r="M41" t="n">
-        <v>6.040770853278585</v>
+        <v>6.040770853278583</v>
       </c>
       <c r="N41" t="n">
-        <v>7.931409106423309</v>
+        <v>7.931409106423307</v>
       </c>
       <c r="O41" t="n">
-        <v>9.71668519667894</v>
+        <v>9.716685196678938</v>
       </c>
       <c r="P41" t="n">
         <v>11.24037703589</v>
@@ -7438,25 +7438,25 @@
         <v>13.05019568904111</v>
       </c>
       <c r="S41" t="n">
-        <v>13.05019568904111</v>
+        <v>9.754691727162038</v>
       </c>
       <c r="T41" t="n">
         <v>9.754691727162038</v>
       </c>
       <c r="U41" t="n">
-        <v>6.459187765282971</v>
+        <v>9.754691727162038</v>
       </c>
       <c r="V41" t="n">
-        <v>3.163683803403904</v>
+        <v>9.754691727162038</v>
       </c>
       <c r="W41" t="n">
-        <v>3.163683803403904</v>
+        <v>6.852011837538956</v>
       </c>
       <c r="X41" t="n">
-        <v>3.163683803403904</v>
+        <v>6.852011837538956</v>
       </c>
       <c r="Y41" t="n">
-        <v>3.163683803403904</v>
+        <v>6.852011837538956</v>
       </c>
     </row>
     <row r="42">
@@ -7466,22 +7466,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>3.556507875659889</v>
+        <v>6.852011837538956</v>
       </c>
       <c r="C42" t="n">
         <v>3.556507875659889</v>
       </c>
       <c r="D42" t="n">
-        <v>3.556507875659889</v>
+        <v>0.2610039137808221</v>
       </c>
       <c r="E42" t="n">
-        <v>3.556507875659889</v>
+        <v>0.2610039137808221</v>
       </c>
       <c r="F42" t="n">
-        <v>3.556507875659889</v>
+        <v>0.2610039137808221</v>
       </c>
       <c r="G42" t="n">
-        <v>3.556507875659889</v>
+        <v>0.2610039137808221</v>
       </c>
       <c r="H42" t="n">
         <v>0.2610039137808221</v>
@@ -7490,28 +7490,28 @@
         <v>0.4561956203818616</v>
       </c>
       <c r="J42" t="n">
-        <v>3.686119053419535</v>
+        <v>0.9918165824064465</v>
       </c>
       <c r="K42" t="n">
-        <v>4.601580589971188</v>
+        <v>1.907278118958099</v>
       </c>
       <c r="L42" t="n">
-        <v>5.832531600835449</v>
+        <v>3.138229129822361</v>
       </c>
       <c r="M42" t="n">
-        <v>7.268993370305775</v>
+        <v>4.574690899292685</v>
       </c>
       <c r="N42" t="n">
-        <v>8.743474008488581</v>
+        <v>6.049171537475493</v>
       </c>
       <c r="O42" t="n">
-        <v>10.0923357292512</v>
+        <v>7.398033258238114</v>
       </c>
       <c r="P42" t="n">
-        <v>11.17491617791312</v>
+        <v>9.096595895631884</v>
       </c>
       <c r="Q42" t="n">
-        <v>12.69820412233482</v>
+        <v>9.820272256003433</v>
       </c>
       <c r="R42" t="n">
         <v>13.05019568904111</v>
@@ -7523,19 +7523,19 @@
         <v>13.05019568904111</v>
       </c>
       <c r="U42" t="n">
-        <v>13.05019568904111</v>
+        <v>10.14751579941802</v>
       </c>
       <c r="V42" t="n">
-        <v>9.754691727162038</v>
+        <v>10.14751579941802</v>
       </c>
       <c r="W42" t="n">
-        <v>9.754691727162038</v>
+        <v>6.852011837538956</v>
       </c>
       <c r="X42" t="n">
-        <v>6.459187765282971</v>
+        <v>6.852011837538956</v>
       </c>
       <c r="Y42" t="n">
-        <v>6.459187765282971</v>
+        <v>6.852011837538956</v>
       </c>
     </row>
     <row r="43">
@@ -7569,25 +7569,25 @@
         <v>0.2610039137808221</v>
       </c>
       <c r="J43" t="n">
-        <v>0.5970352923692027</v>
+        <v>1.128757050888447</v>
       </c>
       <c r="K43" t="n">
-        <v>3.739547961900544</v>
+        <v>1.68095983066979</v>
       </c>
       <c r="L43" t="n">
-        <v>4.44617740325767</v>
+        <v>2.387589272026917</v>
       </c>
       <c r="M43" t="n">
-        <v>5.191219072410229</v>
+        <v>5.61751270506459</v>
       </c>
       <c r="N43" t="n">
-        <v>5.91854531592035</v>
+        <v>8.847436138102264</v>
       </c>
       <c r="O43" t="n">
-        <v>6.590348822965759</v>
+        <v>12.07735957113994</v>
       </c>
       <c r="P43" t="n">
-        <v>9.820272256003433</v>
+        <v>12.65220352905942</v>
       </c>
       <c r="Q43" t="n">
         <v>13.05019568904111</v>
@@ -7611,7 +7611,7 @@
         <v>6.459187765282971</v>
       </c>
       <c r="X43" t="n">
-        <v>6.459187765282971</v>
+        <v>3.163683803403904</v>
       </c>
       <c r="Y43" t="n">
         <v>3.163683803403904</v>
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>33.45485054850599</v>
+        <v>6.852011837538956</v>
       </c>
       <c r="C44" t="n">
-        <v>33.45485054850599</v>
+        <v>3.556507875659889</v>
       </c>
       <c r="D44" t="n">
-        <v>33.45485054850599</v>
+        <v>3.556507875659889</v>
       </c>
       <c r="E44" t="n">
-        <v>33.45485054850599</v>
+        <v>3.556507875659889</v>
       </c>
       <c r="F44" t="n">
-        <v>33.45485054850599</v>
+        <v>3.556507875659889</v>
       </c>
       <c r="G44" t="n">
-        <v>33.45485054850599</v>
+        <v>3.556507875659889</v>
       </c>
       <c r="H44" t="n">
-        <v>33.45485054850599</v>
+        <v>0.2610039137808221</v>
       </c>
       <c r="I44" t="n">
-        <v>83.79828774524233</v>
+        <v>0.2610039137808221</v>
       </c>
       <c r="J44" t="n">
-        <v>195.5292216073329</v>
+        <v>1.160310701713749</v>
       </c>
       <c r="K44" t="n">
-        <v>362.9849282099032</v>
+        <v>2.50813845558963</v>
       </c>
       <c r="L44" t="n">
-        <v>570.7285396968689</v>
+        <v>4.180237967355345</v>
       </c>
       <c r="M44" t="n">
-        <v>801.8833353847205</v>
+        <v>6.040770853278583</v>
       </c>
       <c r="N44" t="n">
-        <v>1036.7784573317</v>
+        <v>7.931409106423307</v>
       </c>
       <c r="O44" t="n">
-        <v>1258.583260144776</v>
+        <v>9.716685196678938</v>
       </c>
       <c r="P44" t="n">
-        <v>1447.888527710259</v>
+        <v>11.24037703589</v>
       </c>
       <c r="Q44" t="n">
-        <v>1590.048899840627</v>
+        <v>12.38460615143387</v>
       </c>
       <c r="R44" t="n">
-        <v>1672.742527425299</v>
+        <v>13.05019568904111</v>
       </c>
       <c r="S44" t="n">
-        <v>1619.698045908998</v>
+        <v>13.05019568904111</v>
       </c>
       <c r="T44" t="n">
-        <v>1405.510527385115</v>
+        <v>9.754691727162038</v>
       </c>
       <c r="U44" t="n">
-        <v>1146.395677971862</v>
+        <v>9.754691727162038</v>
       </c>
       <c r="V44" t="n">
-        <v>783.7787279056888</v>
+        <v>9.754691727162038</v>
       </c>
       <c r="W44" t="n">
-        <v>378.9232733167221</v>
+        <v>6.852011837538956</v>
       </c>
       <c r="X44" t="n">
-        <v>378.9232733167221</v>
+        <v>6.852011837538956</v>
       </c>
       <c r="Y44" t="n">
-        <v>33.45485054850599</v>
+        <v>6.852011837538956</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>531.9672238352459</v>
+        <v>0.2610039137808221</v>
       </c>
       <c r="C45" t="n">
-        <v>425.5107626718882</v>
+        <v>0.2610039137808221</v>
       </c>
       <c r="D45" t="n">
-        <v>330.4204738184415</v>
+        <v>0.2610039137808221</v>
       </c>
       <c r="E45" t="n">
-        <v>236.3000591453952</v>
+        <v>0.2610039137808221</v>
       </c>
       <c r="F45" t="n">
-        <v>152.9162207615568</v>
+        <v>0.2610039137808221</v>
       </c>
       <c r="G45" t="n">
-        <v>68.24978812594551</v>
+        <v>0.2610039137808221</v>
       </c>
       <c r="H45" t="n">
-        <v>33.45485054850599</v>
+        <v>0.2610039137808221</v>
       </c>
       <c r="I45" t="n">
-        <v>83.76937108752902</v>
+        <v>3.490927346818495</v>
       </c>
       <c r="J45" t="n">
-        <v>474.8738748284774</v>
+        <v>4.485730637469688</v>
       </c>
       <c r="K45" t="n">
-        <v>605.2485493631991</v>
+        <v>5.40119217402134</v>
       </c>
       <c r="L45" t="n">
-        <v>758.1833518442032</v>
+        <v>6.632143184885602</v>
       </c>
       <c r="M45" t="n">
-        <v>936.6510528709197</v>
+        <v>8.068604954355926</v>
       </c>
       <c r="N45" t="n">
-        <v>1119.842262896595</v>
+        <v>9.543085592538734</v>
       </c>
       <c r="O45" t="n">
-        <v>1287.426430762205</v>
+        <v>10.89194731330136</v>
       </c>
       <c r="P45" t="n">
-        <v>1421.927499955579</v>
+        <v>11.97452776196327</v>
       </c>
       <c r="Q45" t="n">
-        <v>1511.8379027716</v>
+        <v>12.69820412233482</v>
       </c>
       <c r="R45" t="n">
-        <v>1672.742527425299</v>
+        <v>13.05019568904111</v>
       </c>
       <c r="S45" t="n">
-        <v>1622.635830272358</v>
+        <v>13.05019568904111</v>
       </c>
       <c r="T45" t="n">
-        <v>1495.353879029497</v>
+        <v>13.05019568904111</v>
       </c>
       <c r="U45" t="n">
-        <v>1319.064612101715</v>
+        <v>10.14751579941802</v>
       </c>
       <c r="V45" t="n">
-        <v>1119.947094163714</v>
+        <v>6.852011837538956</v>
       </c>
       <c r="W45" t="n">
-        <v>934.6243398969084</v>
+        <v>3.556507875659889</v>
       </c>
       <c r="X45" t="n">
-        <v>779.7569041357883</v>
+        <v>0.2610039137808221</v>
       </c>
       <c r="Y45" t="n">
-        <v>653.2711249150091</v>
+        <v>0.2610039137808221</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>718.3596126512649</v>
+        <v>9.754691727162038</v>
       </c>
       <c r="C46" t="n">
-        <v>545.7979011344898</v>
+        <v>6.852011837538956</v>
       </c>
       <c r="D46" t="n">
-        <v>379.9199083360126</v>
+        <v>3.556507875659889</v>
       </c>
       <c r="E46" t="n">
-        <v>210.1619045867498</v>
+        <v>3.556507875659889</v>
       </c>
       <c r="F46" t="n">
-        <v>33.45485054850599</v>
+        <v>0.2610039137808221</v>
       </c>
       <c r="G46" t="n">
-        <v>33.45485054850599</v>
+        <v>0.2610039137808221</v>
       </c>
       <c r="H46" t="n">
-        <v>33.45485054850599</v>
+        <v>0.2610039137808221</v>
       </c>
       <c r="I46" t="n">
-        <v>33.45485054850599</v>
+        <v>0.2610039137808221</v>
       </c>
       <c r="J46" t="n">
-        <v>161.7834697148434</v>
+        <v>0.5970352923692027</v>
       </c>
       <c r="K46" t="n">
-        <v>505.1482476164479</v>
+        <v>1.149238072150546</v>
       </c>
       <c r="L46" t="n">
-        <v>769.144789594209</v>
+        <v>4.379161505188219</v>
       </c>
       <c r="M46" t="n">
-        <v>861.7096435212256</v>
+        <v>5.124203174340778</v>
       </c>
       <c r="N46" t="n">
-        <v>952.0735121144794</v>
+        <v>5.851529417850899</v>
       </c>
       <c r="O46" t="n">
-        <v>1035.539170576305</v>
+        <v>9.081452850888573</v>
       </c>
       <c r="P46" t="n">
-        <v>1449.542946114066</v>
+        <v>12.31137628392625</v>
       </c>
       <c r="Q46" t="n">
-        <v>1667.182735391305</v>
+        <v>13.05019568904111</v>
       </c>
       <c r="R46" t="n">
-        <v>1672.742527425299</v>
+        <v>13.05019568904111</v>
       </c>
       <c r="S46" t="n">
-        <v>1524.001055161996</v>
+        <v>13.05019568904111</v>
       </c>
       <c r="T46" t="n">
-        <v>1382.989656722731</v>
+        <v>13.05019568904111</v>
       </c>
       <c r="U46" t="n">
-        <v>1382.989656722731</v>
+        <v>13.05019568904111</v>
       </c>
       <c r="V46" t="n">
-        <v>1382.989656722731</v>
+        <v>13.05019568904111</v>
       </c>
       <c r="W46" t="n">
-        <v>1382.989656722731</v>
+        <v>13.05019568904111</v>
       </c>
       <c r="X46" t="n">
-        <v>1137.597902056144</v>
+        <v>13.05019568904111</v>
       </c>
       <c r="Y46" t="n">
-        <v>910.178231370252</v>
+        <v>13.05019568904111</v>
       </c>
     </row>
   </sheetData>
@@ -9798,25 +9798,25 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>2.616474636111108</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>2.509981579681934</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>2.52787594901773</v>
+        <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>2.583959521204307</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>0.5370926853729745</v>
+        <v>2.681898459715344</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>2.860536639450494</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -9974,10 +9974,10 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.6222042310422733</v>
+        <v>2.531562699662752</v>
       </c>
       <c r="R27" t="n">
-        <v>2.907001885183224</v>
+        <v>0.997643416562747</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10041,19 +10041,19 @@
         <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>0.03251511490680092</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>2.527875949017729</v>
       </c>
       <c r="O28" t="n">
-        <v>2.583959521204308</v>
+        <v>2.583959521204309</v>
       </c>
       <c r="P28" t="n">
-        <v>2.681898459715343</v>
+        <v>0.186537625604414</v>
       </c>
       <c r="Q28" t="n">
-        <v>2.860536639450492</v>
+        <v>2.860536639450494</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10187,7 +10187,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0.6222042310422724</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -10211,10 +10211,10 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>0.6222042310422733</v>
       </c>
       <c r="R30" t="n">
-        <v>2.907001885183224</v>
+        <v>2.907001885183226</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10272,13 +10272,13 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>2.704768336622557</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>2.54878180977833</v>
       </c>
       <c r="M31" t="n">
-        <v>0.03251511490680103</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
         <v>0</v>
@@ -10287,10 +10287,10 @@
         <v>2.583959521204308</v>
       </c>
       <c r="P31" t="n">
-        <v>2.681898459715343</v>
+        <v>0.3214000676717514</v>
       </c>
       <c r="Q31" t="n">
-        <v>2.860536639450492</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10427,10 +10427,10 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>2.721517647487969</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>0.8076884687375294</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10448,10 +10448,10 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>2.531562699662753</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.9976434165627446</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10506,28 +10506,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>2.923123287322518</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>2.54878180977833</v>
+        <v>2.375249808503935</v>
       </c>
       <c r="M34" t="n">
-        <v>2.509981579681934</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>2.527875949017729</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>0.5722703967989516</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>2.860536639450494</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10661,10 +10661,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>3.065385582259226</v>
       </c>
       <c r="J36" t="n">
-        <v>2.721517647487969</v>
+        <v>0.4638205339662687</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -10688,7 +10688,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.8076884687375276</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10743,28 +10743,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>2.923123287322518</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>2.704768336622556</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>2.548781809778329</v>
       </c>
       <c r="M37" t="n">
-        <v>2.509981579681934</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
         <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>2.583959521204307</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>2.681898459715343</v>
       </c>
       <c r="Q37" t="n">
-        <v>0.02103653164993474</v>
+        <v>0.3442699445789632</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10898,10 +10898,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>3.065385582259227</v>
+        <v>3.065385582259226</v>
       </c>
       <c r="J39" t="n">
-        <v>0.4638205339662715</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -10922,7 +10922,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>0.4638205339662687</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -10980,10 +10980,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>2.923123287322518</v>
       </c>
       <c r="K40" t="n">
-        <v>2.704768336622557</v>
+        <v>2.375249808503932</v>
       </c>
       <c r="L40" t="n">
         <v>0</v>
@@ -10998,10 +10998,10 @@
         <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>2.593604759203896</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>2.860536639450494</v>
+        <v>2.860536639450492</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11138,7 +11138,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>2.721517647487969</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -11156,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>0.6222042310422733</v>
       </c>
       <c r="Q42" t="n">
-        <v>0.8076884687375276</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>2.907001885183224</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11217,28 +11217,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>0.5370926853729739</v>
       </c>
       <c r="K43" t="n">
-        <v>2.616474636111109</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>2.509981579681935</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>2.527875949017728</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>2.583959521204308</v>
       </c>
       <c r="P43" t="n">
-        <v>2.681898459715343</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>2.860536639450492</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11372,13 +11372,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>26.32694258632081</v>
+        <v>3.065385582259226</v>
       </c>
       <c r="J45" t="n">
-        <v>327.836691885063</v>
+        <v>0.4638205339662704</v>
       </c>
       <c r="K45" t="n">
-        <v>16.80470271645392</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11399,7 +11399,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -11454,13 +11454,13 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>177.9839075203757</v>
+        <v>2.54878180977833</v>
       </c>
       <c r="M46" t="n">
         <v>0</v>
@@ -11469,13 +11469,13 @@
         <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>2.583959521204308</v>
       </c>
       <c r="P46" t="n">
-        <v>346.0449349349548</v>
+        <v>2.681898459715343</v>
       </c>
       <c r="Q46" t="n">
-        <v>169.8916917821538</v>
+        <v>0.3442699445789632</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -24208,22 +24208,22 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C23" t="n">
-        <v>430.4984991661506</v>
+        <v>430.8873949976841</v>
       </c>
       <c r="D23" t="n">
-        <v>428.2881380550396</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E23" t="n">
-        <v>426.1744484710275</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F23" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G23" t="n">
-        <v>394.4994971260158</v>
+        <v>394.1106012944824</v>
       </c>
       <c r="H23" t="n">
-        <v>286.1292424873029</v>
+        <v>282.8666935650426</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24268,7 +24268,7 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W23" t="n">
-        <v>400.806900043077</v>
+        <v>397.5443511208167</v>
       </c>
       <c r="X23" t="n">
         <v>414.9510387864824</v>
@@ -24335,13 +24335,13 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>59.45196651563608</v>
+        <v>62.71451543789636</v>
       </c>
       <c r="T24" t="n">
         <v>128.8537753079323</v>
       </c>
       <c r="U24" t="n">
-        <v>174.5728047847957</v>
+        <v>171.3102558625354</v>
       </c>
       <c r="V24" t="n">
         <v>193.8637938363604</v>
@@ -24378,10 +24378,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G25" t="n">
-        <v>163.9305612960722</v>
+        <v>160.668012373812</v>
       </c>
       <c r="H25" t="n">
-        <v>138.4604679489429</v>
+        <v>135.1979190266826</v>
       </c>
       <c r="I25" t="n">
         <v>87.62897272389382</v>
@@ -24411,22 +24411,22 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>20.98777588476758</v>
+        <v>17.72522696250731</v>
       </c>
       <c r="S25" t="n">
-        <v>157.5652879271376</v>
+        <v>154.6916348364108</v>
       </c>
       <c r="T25" t="n">
-        <v>240.5264858090711</v>
+        <v>243.400138899798</v>
       </c>
       <c r="U25" t="n">
-        <v>272.3858599483459</v>
+        <v>275.6484088706061</v>
       </c>
       <c r="V25" t="n">
-        <v>280.8234041260135</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W25" t="n">
-        <v>266.0435914473111</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X25" t="n">
         <v>242.9378371199217</v>
@@ -24457,10 +24457,10 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G26" t="n">
-        <v>394.1106012944824</v>
+        <v>397.3731502167427</v>
       </c>
       <c r="H26" t="n">
-        <v>282.8666935650426</v>
+        <v>286.1292424873029</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24496,19 +24496,19 @@
         <v>82.5714639696243</v>
       </c>
       <c r="T26" t="n">
-        <v>217.819703146337</v>
+        <v>214.5571542240768</v>
       </c>
       <c r="U26" t="n">
         <v>253.3666745061949</v>
       </c>
       <c r="V26" t="n">
-        <v>358.9907805655117</v>
+        <v>355.7282316432514</v>
       </c>
       <c r="W26" t="n">
-        <v>400.806900043077</v>
+        <v>397.9332469523501</v>
       </c>
       <c r="X26" t="n">
-        <v>412.0773856957555</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y26" t="n">
         <v>404.2032624633431</v>
@@ -24575,19 +24575,19 @@
         <v>62.71451543789636</v>
       </c>
       <c r="T27" t="n">
-        <v>125.9801222172054</v>
+        <v>125.591226385672</v>
       </c>
       <c r="U27" t="n">
         <v>171.3102558625354</v>
       </c>
       <c r="V27" t="n">
-        <v>193.8637938363604</v>
+        <v>197.1263427586206</v>
       </c>
       <c r="W27" t="n">
         <v>180.2069778018777</v>
       </c>
       <c r="X27" t="n">
-        <v>153.3187614035088</v>
+        <v>150.4451083127819</v>
       </c>
       <c r="Y27" t="n">
         <v>125.2209214285714</v>
@@ -24603,22 +24603,22 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C28" t="n">
-        <v>167.573545479347</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D28" t="n">
-        <v>164.2192128704925</v>
+        <v>160.9566639482323</v>
       </c>
       <c r="E28" t="n">
-        <v>165.1867706210433</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F28" t="n">
-        <v>171.6774345756011</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G28" t="n">
         <v>163.9305612960722</v>
       </c>
       <c r="H28" t="n">
-        <v>138.4604679489429</v>
+        <v>135.586814858216</v>
       </c>
       <c r="I28" t="n">
         <v>87.62897272389382</v>
@@ -24648,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>20.98777588476758</v>
+        <v>17.72522696250731</v>
       </c>
       <c r="S28" t="n">
-        <v>157.5652879271376</v>
+        <v>154.3027390048774</v>
       </c>
       <c r="T28" t="n">
         <v>243.400138899798</v>
@@ -24663,7 +24663,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W28" t="n">
-        <v>266.0435914473111</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X28" t="n">
         <v>242.9378371199217</v>
@@ -24682,19 +24682,19 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C29" t="n">
-        <v>433.7610480884109</v>
+        <v>430.4984991661506</v>
       </c>
       <c r="D29" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E29" t="n">
-        <v>426.5633443025609</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F29" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G29" t="n">
-        <v>394.1106012944824</v>
+        <v>397.3731502167427</v>
       </c>
       <c r="H29" t="n">
         <v>286.1292424873029</v>
@@ -24730,19 +24730,19 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>79.30891504736402</v>
+        <v>82.5714639696243</v>
       </c>
       <c r="T29" t="n">
-        <v>214.5571542240768</v>
+        <v>217.819703146337</v>
       </c>
       <c r="U29" t="n">
-        <v>256.6292234284552</v>
+        <v>253.7555703377283</v>
       </c>
       <c r="V29" t="n">
-        <v>358.9907805655117</v>
+        <v>355.7282316432514</v>
       </c>
       <c r="W29" t="n">
-        <v>400.806900043077</v>
+        <v>397.5443511208167</v>
       </c>
       <c r="X29" t="n">
         <v>414.9510387864824</v>
@@ -24761,22 +24761,22 @@
         <v>120.0908620689655</v>
       </c>
       <c r="C30" t="n">
-        <v>105.3918965517241</v>
+        <v>102.1293476294639</v>
       </c>
       <c r="D30" t="n">
         <v>94.13938596491228</v>
       </c>
       <c r="E30" t="n">
-        <v>90.30555743558897</v>
+        <v>93.17921052631581</v>
       </c>
       <c r="F30" t="n">
-        <v>82.55</v>
+        <v>79.28745107773972</v>
       </c>
       <c r="G30" t="n">
-        <v>84.52551230889576</v>
+        <v>81.65185921816891</v>
       </c>
       <c r="H30" t="n">
-        <v>38.00044053909289</v>
+        <v>41.26298946135317</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -24809,7 +24809,7 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>59.45196651563608</v>
+        <v>62.71451543789636</v>
       </c>
       <c r="T30" t="n">
         <v>128.8537753079323</v>
@@ -24843,7 +24843,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D31" t="n">
-        <v>164.2192128704925</v>
+        <v>160.9566639482323</v>
       </c>
       <c r="E31" t="n">
         <v>168.0604237117701</v>
@@ -24852,7 +24852,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G31" t="n">
-        <v>161.0569082053454</v>
+        <v>160.668012373812</v>
       </c>
       <c r="H31" t="n">
         <v>138.4604679489429</v>
@@ -24885,19 +24885,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>17.72522696250731</v>
+        <v>20.98777588476758</v>
       </c>
       <c r="S31" t="n">
-        <v>154.3027390048774</v>
+        <v>157.5652879271376</v>
       </c>
       <c r="T31" t="n">
         <v>243.400138899798</v>
       </c>
       <c r="U31" t="n">
-        <v>275.6484088706061</v>
+        <v>272.3858599483459</v>
       </c>
       <c r="V31" t="n">
-        <v>280.8234041260135</v>
+        <v>281.212299957547</v>
       </c>
       <c r="W31" t="n">
         <v>269.3061403695714</v>
@@ -24931,7 +24931,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G32" t="n">
-        <v>394.1106012944824</v>
+        <v>397.3731502167427</v>
       </c>
       <c r="H32" t="n">
         <v>286.1292424873029</v>
@@ -24967,25 +24967,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>79.69781087889746</v>
+        <v>82.5714639696243</v>
       </c>
       <c r="T32" t="n">
         <v>217.819703146337</v>
       </c>
       <c r="U32" t="n">
-        <v>253.3666745061949</v>
+        <v>256.6292234284552</v>
       </c>
       <c r="V32" t="n">
         <v>355.7282316432514</v>
       </c>
       <c r="W32" t="n">
-        <v>400.806900043077</v>
+        <v>397.5443511208167</v>
       </c>
       <c r="X32" t="n">
-        <v>414.9510387864824</v>
+        <v>411.6884898642221</v>
       </c>
       <c r="Y32" t="n">
-        <v>404.2032624633431</v>
+        <v>401.3296093726162</v>
       </c>
     </row>
     <row r="33">
@@ -24995,22 +24995,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>116.8283131467052</v>
+        <v>120.0908620689655</v>
       </c>
       <c r="C33" t="n">
         <v>105.3918965517241</v>
       </c>
       <c r="D33" t="n">
-        <v>94.13938596491228</v>
+        <v>90.876837042652</v>
       </c>
       <c r="E33" t="n">
-        <v>93.17921052631581</v>
+        <v>89.91666160405553</v>
       </c>
       <c r="F33" t="n">
         <v>82.55</v>
       </c>
       <c r="G33" t="n">
-        <v>81.65185921816891</v>
+        <v>84.52551230889576</v>
       </c>
       <c r="H33" t="n">
         <v>41.26298946135317</v>
@@ -25046,7 +25046,7 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>59.45196651563608</v>
+        <v>62.71451543789636</v>
       </c>
       <c r="T33" t="n">
         <v>128.8537753079323</v>
@@ -25055,7 +25055,7 @@
         <v>174.5728047847957</v>
       </c>
       <c r="V33" t="n">
-        <v>193.8637938363604</v>
+        <v>194.2526896678938</v>
       </c>
       <c r="W33" t="n">
         <v>183.4695267241379</v>
@@ -25064,7 +25064,7 @@
         <v>153.3187614035088</v>
       </c>
       <c r="Y33" t="n">
-        <v>125.2209214285714</v>
+        <v>121.9583725063111</v>
       </c>
     </row>
     <row r="34">
@@ -25077,13 +25077,13 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C34" t="n">
-        <v>167.9624413108805</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D34" t="n">
-        <v>164.2192128704925</v>
+        <v>160.9566639482323</v>
       </c>
       <c r="E34" t="n">
-        <v>168.0604237117701</v>
+        <v>164.7978747895098</v>
       </c>
       <c r="F34" t="n">
         <v>174.9399834978613</v>
@@ -25122,19 +25122,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>20.98777588476758</v>
+        <v>18.11412279404073</v>
       </c>
       <c r="S34" t="n">
-        <v>154.3027390048774</v>
+        <v>157.5652879271376</v>
       </c>
       <c r="T34" t="n">
-        <v>240.1375899775377</v>
+        <v>243.400138899798</v>
       </c>
       <c r="U34" t="n">
-        <v>275.6484088706061</v>
+        <v>272.3858599483459</v>
       </c>
       <c r="V34" t="n">
-        <v>280.8234041260135</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W34" t="n">
         <v>269.3061403695714</v>
@@ -25153,19 +25153,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>422.0365747800587</v>
+        <v>419.1629216893318</v>
       </c>
       <c r="C35" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D35" t="n">
-        <v>431.5506869772999</v>
+        <v>428.2881380550396</v>
       </c>
       <c r="E35" t="n">
-        <v>426.5633443025609</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F35" t="n">
-        <v>420.326206372624</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G35" t="n">
         <v>397.3731502167427</v>
@@ -25210,7 +25210,7 @@
         <v>214.5571542240768</v>
       </c>
       <c r="U35" t="n">
-        <v>253.3666745061949</v>
+        <v>256.6292234284552</v>
       </c>
       <c r="V35" t="n">
         <v>358.9907805655117</v>
@@ -25219,7 +25219,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X35" t="n">
-        <v>414.9510387864824</v>
+        <v>411.6884898642221</v>
       </c>
       <c r="Y35" t="n">
         <v>404.2032624633431</v>
@@ -25232,7 +25232,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>116.8283131467052</v>
+        <v>120.0908620689655</v>
       </c>
       <c r="C36" t="n">
         <v>105.3918965517241</v>
@@ -25241,16 +25241,16 @@
         <v>94.13938596491228</v>
       </c>
       <c r="E36" t="n">
-        <v>93.17921052631581</v>
+        <v>90.30555743558897</v>
       </c>
       <c r="F36" t="n">
-        <v>82.55</v>
+        <v>79.28745107773972</v>
       </c>
       <c r="G36" t="n">
         <v>84.52551230889576</v>
       </c>
       <c r="H36" t="n">
-        <v>38.38933637062632</v>
+        <v>41.26298946135317</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -25283,7 +25283,7 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>59.45196651563608</v>
+        <v>62.71451543789636</v>
       </c>
       <c r="T36" t="n">
         <v>128.8537753079323</v>
@@ -25295,7 +25295,7 @@
         <v>193.8637938363604</v>
       </c>
       <c r="W36" t="n">
-        <v>183.4695267241379</v>
+        <v>180.2069778018777</v>
       </c>
       <c r="X36" t="n">
         <v>153.3187614035088</v>
@@ -25359,22 +25359,22 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>20.98777588476758</v>
+        <v>17.72522696250731</v>
       </c>
       <c r="S37" t="n">
-        <v>154.6916348364108</v>
+        <v>157.5652879271376</v>
       </c>
       <c r="T37" t="n">
-        <v>243.400138899798</v>
+        <v>240.1375899775377</v>
       </c>
       <c r="U37" t="n">
         <v>272.3858599483459</v>
       </c>
       <c r="V37" t="n">
-        <v>280.8234041260135</v>
+        <v>281.212299957547</v>
       </c>
       <c r="W37" t="n">
-        <v>266.0435914473111</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X37" t="n">
         <v>242.9378371199217</v>
@@ -25390,10 +25390,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>419.1629216893318</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C38" t="n">
-        <v>430.4984991661506</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D38" t="n">
         <v>431.5506869772999</v>
@@ -25408,7 +25408,7 @@
         <v>397.3731502167427</v>
       </c>
       <c r="H38" t="n">
-        <v>286.1292424873029</v>
+        <v>282.8666935650426</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -25444,10 +25444,10 @@
         <v>82.5714639696243</v>
       </c>
       <c r="T38" t="n">
-        <v>214.5571542240768</v>
+        <v>214.9460500556102</v>
       </c>
       <c r="U38" t="n">
-        <v>256.6292234284552</v>
+        <v>253.3666745061949</v>
       </c>
       <c r="V38" t="n">
         <v>355.7282316432514</v>
@@ -25481,13 +25481,13 @@
         <v>93.17921052631581</v>
       </c>
       <c r="F39" t="n">
-        <v>82.55</v>
+        <v>79.28745107773972</v>
       </c>
       <c r="G39" t="n">
         <v>84.52551230889576</v>
       </c>
       <c r="H39" t="n">
-        <v>41.26298946135317</v>
+        <v>38.00044053909289</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -25529,16 +25529,16 @@
         <v>174.5728047847957</v>
       </c>
       <c r="V39" t="n">
-        <v>193.8637938363604</v>
+        <v>194.2526896678938</v>
       </c>
       <c r="W39" t="n">
-        <v>180.2069778018777</v>
+        <v>183.4695267241379</v>
       </c>
       <c r="X39" t="n">
-        <v>150.0562124812485</v>
+        <v>153.3187614035088</v>
       </c>
       <c r="Y39" t="n">
-        <v>122.3472683378446</v>
+        <v>121.9583725063111</v>
       </c>
     </row>
     <row r="40">
@@ -25560,7 +25560,7 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F40" t="n">
-        <v>171.6774345756011</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
         <v>163.9305612960722</v>
@@ -25608,7 +25608,7 @@
         <v>275.6484088706061</v>
       </c>
       <c r="V40" t="n">
-        <v>284.0859530482738</v>
+        <v>280.8234041260135</v>
       </c>
       <c r="W40" t="n">
         <v>266.0435914473111</v>
@@ -25639,10 +25639,10 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F41" t="n">
-        <v>423.5887552948843</v>
+        <v>420.326206372624</v>
       </c>
       <c r="G41" t="n">
-        <v>394.4994971260158</v>
+        <v>394.1106012944824</v>
       </c>
       <c r="H41" t="n">
         <v>286.1292424873029</v>
@@ -25678,19 +25678,19 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>82.5714639696243</v>
+        <v>79.30891504736402</v>
       </c>
       <c r="T41" t="n">
-        <v>214.5571542240768</v>
+        <v>217.819703146337</v>
       </c>
       <c r="U41" t="n">
-        <v>253.3666745061949</v>
+        <v>256.6292234284552</v>
       </c>
       <c r="V41" t="n">
-        <v>355.7282316432514</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
-        <v>400.806900043077</v>
+        <v>397.9332469523501</v>
       </c>
       <c r="X41" t="n">
         <v>414.9510387864824</v>
@@ -25706,13 +25706,13 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>117.2172089782387</v>
+        <v>120.0908620689655</v>
       </c>
       <c r="C42" t="n">
-        <v>105.3918965517241</v>
+        <v>102.1293476294639</v>
       </c>
       <c r="D42" t="n">
-        <v>94.13938596491228</v>
+        <v>90.876837042652</v>
       </c>
       <c r="E42" t="n">
         <v>93.17921052631581</v>
@@ -25724,7 +25724,7 @@
         <v>84.52551230889576</v>
       </c>
       <c r="H42" t="n">
-        <v>38.00044053909289</v>
+        <v>41.26298946135317</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -25763,16 +25763,16 @@
         <v>128.8537753079323</v>
       </c>
       <c r="U42" t="n">
-        <v>174.5728047847957</v>
+        <v>171.6991516940688</v>
       </c>
       <c r="V42" t="n">
-        <v>193.8637938363604</v>
+        <v>197.1263427586206</v>
       </c>
       <c r="W42" t="n">
-        <v>183.4695267241379</v>
+        <v>180.2069778018777</v>
       </c>
       <c r="X42" t="n">
-        <v>150.0562124812485</v>
+        <v>153.3187614035088</v>
       </c>
       <c r="Y42" t="n">
         <v>125.2209214285714</v>
@@ -25851,10 +25851,10 @@
         <v>266.0435914473111</v>
       </c>
       <c r="X43" t="n">
-        <v>242.9378371199217</v>
+        <v>239.6752881976614</v>
       </c>
       <c r="Y43" t="n">
-        <v>221.8829250567725</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="44">
@@ -25867,7 +25867,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
-        <v>433.7610480884109</v>
+        <v>430.4984991661506</v>
       </c>
       <c r="D44" t="n">
         <v>431.5506869772999</v>
@@ -25879,10 +25879,10 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
-        <v>396.054118850051</v>
+        <v>397.3731502167427</v>
       </c>
       <c r="H44" t="n">
-        <v>272.6207125031721</v>
+        <v>282.8666935650426</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25915,25 +25915,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>82.5714639696243</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>214.5571542240768</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>256.6292234284552</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>397.9332469523501</v>
       </c>
       <c r="X44" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y44" t="n">
-        <v>62.1895239228092</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="45">
@@ -25943,25 +25943,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>120.0908620689655</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>105.3918965517241</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>94.13938596491228</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>93.17921052631581</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>82.55</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>84.52551230889576</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>41.26298946135317</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -25994,25 +25994,25 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>62.71451543789636</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>128.8537753079323</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>171.6991516940688</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>193.8637938363604</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>180.2069778018777</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>150.0562124812485</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>125.2209214285714</v>
       </c>
     </row>
     <row r="46">
@@ -26022,28 +26022,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>186.637883609537</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.9624413108805</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>160.9566639482323</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>171.6774345756011</v>
       </c>
       <c r="G46" t="n">
-        <v>163.3388892342509</v>
+        <v>163.9305612960722</v>
       </c>
       <c r="H46" t="n">
-        <v>133.1999654356588</v>
+        <v>138.4604679489429</v>
       </c>
       <c r="I46" t="n">
-        <v>69.83578017384922</v>
+        <v>87.62897272389382</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,16 +26070,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>20.98777588476758</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>157.5652879271376</v>
       </c>
       <c r="T46" t="n">
-        <v>101.2708010898708</v>
+        <v>243.400138899798</v>
       </c>
       <c r="U46" t="n">
-        <v>275.6161358490523</v>
+        <v>275.6484088706061</v>
       </c>
       <c r="V46" t="n">
         <v>284.0859530482738</v>
@@ -26088,10 +26088,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
   </sheetData>
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>2729.120371701825</v>
+        <v>2729.120371701822</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>2729.120371701822</v>
+        <v>2729.120371701825</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>2729.120371701825</v>
+        <v>2729.120371701823</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>2729.120371701825</v>
+        <v>2729.120371701832</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>2729.120371701808</v>
+        <v>2729.120371701803</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>2729.12037170182</v>
+        <v>2729.120371701825</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>2729.12037170182</v>
+        <v>2729.120371701823</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>343971.7922085937</v>
+        <v>2729.120371701822</v>
       </c>
     </row>
   </sheetData>
@@ -26337,25 +26337,25 @@
         <v>725.462710120062</v>
       </c>
       <c r="J2" t="n">
-        <v>725.462710120062</v>
+        <v>725.4627101200617</v>
       </c>
       <c r="K2" t="n">
-        <v>725.4627101200618</v>
+        <v>725.4627101200617</v>
       </c>
       <c r="L2" t="n">
-        <v>725.4627101200618</v>
+        <v>725.4627101200617</v>
       </c>
       <c r="M2" t="n">
         <v>725.4627101200616</v>
       </c>
       <c r="N2" t="n">
-        <v>725.462710120062</v>
+        <v>725.4627101200617</v>
       </c>
       <c r="O2" t="n">
-        <v>725.4627101200616</v>
+        <v>725.4627101200618</v>
       </c>
       <c r="P2" t="n">
-        <v>91292.60669269419</v>
+        <v>725.4627101200618</v>
       </c>
     </row>
     <row r="3">
@@ -26407,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>316458.5395085998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26444,22 +26444,22 @@
         <v>71.9195588361155</v>
       </c>
       <c r="K4" t="n">
-        <v>71.91955883611548</v>
+        <v>71.91955883611551</v>
       </c>
       <c r="L4" t="n">
         <v>71.9195588361155</v>
       </c>
       <c r="M4" t="n">
-        <v>71.91955883611548</v>
+        <v>71.91955883611547</v>
       </c>
       <c r="N4" t="n">
-        <v>71.9195588361155</v>
+        <v>71.91955883611547</v>
       </c>
       <c r="O4" t="n">
         <v>71.91955883611548</v>
       </c>
       <c r="P4" t="n">
-        <v>9594.864639660447</v>
+        <v>71.9195588361155</v>
       </c>
     </row>
     <row r="5">
@@ -26511,7 +26511,7 @@
         <v>256.4018338459632</v>
       </c>
       <c r="P5" t="n">
-        <v>32636.50261996421</v>
+        <v>256.4018338459632</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-33627.6</v>
+        <v>-34967.96829972602</v>
       </c>
       <c r="C6" t="n">
-        <v>-33627.6</v>
+        <v>-34967.96829972602</v>
       </c>
       <c r="D6" t="n">
-        <v>-33627.6</v>
+        <v>-34967.96829972602</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>-1340.368299726021</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>-1340.368299726021</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>-1340.368299726021</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>-1340.368299726021</v>
       </c>
       <c r="I6" t="n">
-        <v>-2474.507456987148</v>
+        <v>-3810.039338645702</v>
       </c>
       <c r="J6" t="n">
-        <v>397.1413174379833</v>
+        <v>-938.3905642205708</v>
       </c>
       <c r="K6" t="n">
-        <v>397.1413174379832</v>
+        <v>-938.3905642205708</v>
       </c>
       <c r="L6" t="n">
-        <v>397.1413174379832</v>
+        <v>-938.3905642205708</v>
       </c>
       <c r="M6" t="n">
-        <v>397.141317437983</v>
+        <v>-938.3905642205709</v>
       </c>
       <c r="N6" t="n">
-        <v>397.1413174379833</v>
+        <v>-938.3905642205707</v>
       </c>
       <c r="O6" t="n">
-        <v>397.141317437983</v>
+        <v>-938.3905642205705</v>
       </c>
       <c r="P6" t="n">
-        <v>-267397.3000755302</v>
+        <v>-938.3905642205707</v>
       </c>
     </row>
   </sheetData>
@@ -26779,7 +26779,7 @@
         <v>2.662332998740292</v>
       </c>
       <c r="P3" t="n">
-        <v>330.7713854632871</v>
+        <v>2.662332998740292</v>
       </c>
     </row>
     <row r="4">
@@ -26813,25 +26813,25 @@
         <v>3.262548922260277</v>
       </c>
       <c r="J4" t="n">
-        <v>3.262548922260276</v>
+        <v>3.262548922260277</v>
       </c>
       <c r="K4" t="n">
-        <v>3.262548922260276</v>
+        <v>3.262548922260277</v>
       </c>
       <c r="L4" t="n">
-        <v>3.262548922260276</v>
+        <v>3.262548922260277</v>
       </c>
       <c r="M4" t="n">
         <v>3.262548922260276</v>
       </c>
       <c r="N4" t="n">
-        <v>3.262548922260277</v>
+        <v>3.262548922260276</v>
       </c>
       <c r="O4" t="n">
         <v>3.262548922260276</v>
       </c>
       <c r="P4" t="n">
-        <v>418.1856318563248</v>
+        <v>3.262548922260276</v>
       </c>
     </row>
   </sheetData>
@@ -27001,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>328.1090524645468</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27053,7 +27053,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>414.9230829340646</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1.329734212917736</v>
+        <v>0.01070284622609162</v>
       </c>
       <c r="H44" t="n">
-        <v>13.61814050804377</v>
+        <v>0.1096105239129608</v>
       </c>
       <c r="I44" t="n">
-        <v>51.26457824351107</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J44" t="n">
-        <v>112.8595291536268</v>
+        <v>0.9083906948817444</v>
       </c>
       <c r="K44" t="n">
-        <v>169.1471783864346</v>
+        <v>1.361442175632203</v>
       </c>
       <c r="L44" t="n">
-        <v>209.8420318050158</v>
+        <v>1.688989405823955</v>
       </c>
       <c r="M44" t="n">
-        <v>233.4896926139916</v>
+        <v>1.879326147397211</v>
       </c>
       <c r="N44" t="n">
-        <v>237.2677999464441</v>
+        <v>1.909735609237095</v>
       </c>
       <c r="O44" t="n">
-        <v>224.0452553667434</v>
+        <v>1.803309182076396</v>
       </c>
       <c r="P44" t="n">
-        <v>191.2174419853368</v>
+        <v>1.539082665869759</v>
       </c>
       <c r="Q44" t="n">
-        <v>143.5963354852203</v>
+        <v>1.155786985397852</v>
       </c>
       <c r="R44" t="n">
-        <v>83.52891675219382</v>
+        <v>0.6723126642497282</v>
       </c>
       <c r="S44" t="n">
-        <v>30.30131837686294</v>
+        <v>0.243891108377063</v>
       </c>
       <c r="T44" t="n">
-        <v>5.820911517047393</v>
+        <v>0.04685170935471609</v>
       </c>
       <c r="U44" t="n">
-        <v>0.1063787370334189</v>
+        <v>0.0008562276980873294</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.7114705272229195</v>
+        <v>0.005726527582196101</v>
       </c>
       <c r="H45" t="n">
-        <v>6.871307460284513</v>
+        <v>0.05530620059647288</v>
       </c>
       <c r="I45" t="n">
-        <v>24.49580543289438</v>
+        <v>0.19716334000105</v>
       </c>
       <c r="J45" t="n">
-        <v>67.21836239872329</v>
+        <v>0.5410312747723081</v>
       </c>
       <c r="K45" t="n">
-        <v>114.8868877226589</v>
+        <v>0.9247086227794468</v>
       </c>
       <c r="L45" t="n">
-        <v>154.4795984656607</v>
+        <v>1.243384859458851</v>
       </c>
       <c r="M45" t="n">
-        <v>180.2704050774915</v>
+        <v>1.450971484313459</v>
       </c>
       <c r="N45" t="n">
-        <v>185.041626288561</v>
+        <v>1.489374382002836</v>
       </c>
       <c r="O45" t="n">
-        <v>169.27693723799</v>
+        <v>1.362486586628912</v>
       </c>
       <c r="P45" t="n">
-        <v>135.8596658518924</v>
+        <v>1.093515604709008</v>
       </c>
       <c r="Q45" t="n">
-        <v>90.81858870305197</v>
+        <v>0.7309862225975234</v>
       </c>
       <c r="R45" t="n">
-        <v>44.17358238319146</v>
+        <v>0.3555470370770528</v>
       </c>
       <c r="S45" t="n">
-        <v>13.21525299468887</v>
+        <v>0.106367738204388</v>
       </c>
       <c r="T45" t="n">
-        <v>2.867725502271328</v>
+        <v>0.02308192477209743</v>
       </c>
       <c r="U45" t="n">
-        <v>0.04680727152782367</v>
+        <v>0.0003767452356707962</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.596472990179698</v>
+        <v>0.004800928358384133</v>
       </c>
       <c r="H46" t="n">
-        <v>5.30318713087041</v>
+        <v>0.04268461758636078</v>
       </c>
       <c r="I46" t="n">
-        <v>17.9375695592222</v>
+        <v>0.1443770091775883</v>
       </c>
       <c r="J46" t="n">
-        <v>42.17064040570465</v>
+        <v>0.3394256349377582</v>
       </c>
       <c r="K46" t="n">
-        <v>69.29931649542308</v>
+        <v>0.55778058563772</v>
       </c>
       <c r="L46" t="n">
-        <v>88.67926619453439</v>
+        <v>0.7137671124819467</v>
       </c>
       <c r="M46" t="n">
-        <v>93.49985245153211</v>
+        <v>0.7525673425783418</v>
       </c>
       <c r="N46" t="n">
-        <v>91.27663494268057</v>
+        <v>0.734672973242547</v>
       </c>
       <c r="O46" t="n">
-        <v>84.30874592103589</v>
+        <v>0.6785894010559684</v>
       </c>
       <c r="P46" t="n">
-        <v>72.14069692136999</v>
+        <v>0.5806504625449317</v>
       </c>
       <c r="Q46" t="n">
-        <v>49.94647920495635</v>
+        <v>0.4020122828097841</v>
       </c>
       <c r="R46" t="n">
-        <v>26.81959463117078</v>
+        <v>0.2158671969142538</v>
       </c>
       <c r="S46" t="n">
-        <v>10.39489747431346</v>
+        <v>0.083667087845658</v>
       </c>
       <c r="T46" t="n">
-        <v>2.548566412585982</v>
+        <v>0.02051305753127766</v>
       </c>
       <c r="U46" t="n">
-        <v>0.03253489037343811</v>
+        <v>0.0002618688195482257</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -36360,7 +36360,7 @@
         <v>0.9083906948817446</v>
       </c>
       <c r="K23" t="n">
-        <v>1.361442175632203</v>
+        <v>1.361442175632202</v>
       </c>
       <c r="L23" t="n">
         <v>1.688989405823955</v>
@@ -36369,10 +36369,10 @@
         <v>1.879326147397212</v>
       </c>
       <c r="N23" t="n">
-        <v>1.909735609237095</v>
+        <v>1.909735609237094</v>
       </c>
       <c r="O23" t="n">
-        <v>1.803309182076395</v>
+        <v>1.803309182076397</v>
       </c>
       <c r="P23" t="n">
         <v>1.539082665869758</v>
@@ -36518,25 +36518,25 @@
         <v>0.3394256349377582</v>
       </c>
       <c r="K25" t="n">
-        <v>0.55778058563772</v>
+        <v>3.174255221748829</v>
       </c>
       <c r="L25" t="n">
         <v>0.7137671124819467</v>
       </c>
       <c r="M25" t="n">
-        <v>3.262548922260276</v>
+        <v>0.7525673425783417</v>
       </c>
       <c r="N25" t="n">
+        <v>0.7346729732425468</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0.6785894010559685</v>
+      </c>
+      <c r="P25" t="n">
+        <v>3.262548922260277</v>
+      </c>
+      <c r="Q25" t="n">
         <v>3.262548922260278</v>
-      </c>
-      <c r="O25" t="n">
-        <v>3.262548922260276</v>
-      </c>
-      <c r="P25" t="n">
-        <v>1.117743147917906</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>0.4020122828097836</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36603,16 +36603,16 @@
         <v>1.688989405823955</v>
       </c>
       <c r="M26" t="n">
-        <v>1.879326147397211</v>
+        <v>1.879326147397212</v>
       </c>
       <c r="N26" t="n">
-        <v>1.909735609237095</v>
+        <v>1.909735609237094</v>
       </c>
       <c r="O26" t="n">
         <v>1.803309182076395</v>
       </c>
       <c r="P26" t="n">
-        <v>1.53908266586976</v>
+        <v>1.539082665869758</v>
       </c>
       <c r="Q26" t="n">
         <v>1.155786985397851</v>
@@ -36694,10 +36694,10 @@
         <v>1.093515604709008</v>
       </c>
       <c r="Q27" t="n">
-        <v>1.353190453639797</v>
+        <v>3.262548922260276</v>
       </c>
       <c r="R27" t="n">
-        <v>3.262548922260276</v>
+        <v>1.353190453639799</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36755,25 +36755,25 @@
         <v>0.3394256349377582</v>
       </c>
       <c r="K28" t="n">
-        <v>0.5577805856377201</v>
+        <v>0.55778058563772</v>
       </c>
       <c r="L28" t="n">
         <v>0.7137671124819467</v>
       </c>
       <c r="M28" t="n">
-        <v>0.7850824574851427</v>
+        <v>0.7525673425783417</v>
       </c>
       <c r="N28" t="n">
-        <v>0.7346729732425472</v>
+        <v>3.262548922260276</v>
       </c>
       <c r="O28" t="n">
-        <v>3.262548922260276</v>
+        <v>3.262548922260278</v>
       </c>
       <c r="P28" t="n">
-        <v>3.262548922260276</v>
+        <v>0.7671880881493465</v>
       </c>
       <c r="Q28" t="n">
-        <v>3.262548922260276</v>
+        <v>3.262548922260278</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36852,10 +36852,10 @@
         <v>1.539082665869758</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.155786985397855</v>
+        <v>1.155786985397851</v>
       </c>
       <c r="R29" t="n">
-        <v>0.672312664249727</v>
+        <v>0.6723126642497288</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0.8193675710433224</v>
+        <v>0.19716334000105</v>
       </c>
       <c r="J30" t="n">
         <v>0.5410312747723081</v>
@@ -36931,10 +36931,10 @@
         <v>1.093515604709008</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.7309862225975241</v>
+        <v>1.353190453639797</v>
       </c>
       <c r="R30" t="n">
-        <v>3.262548922260276</v>
+        <v>3.262548922260278</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36992,25 +36992,25 @@
         <v>0.3394256349377582</v>
       </c>
       <c r="K31" t="n">
-        <v>0.5577805856377201</v>
+        <v>3.262548922260277</v>
       </c>
       <c r="L31" t="n">
-        <v>0.7137671124819467</v>
+        <v>3.262548922260277</v>
       </c>
       <c r="M31" t="n">
-        <v>0.7850824574851427</v>
+        <v>0.7525673425783417</v>
       </c>
       <c r="N31" t="n">
-        <v>0.7346729732425472</v>
+        <v>0.7346729732425477</v>
       </c>
       <c r="O31" t="n">
         <v>3.262548922260276</v>
       </c>
       <c r="P31" t="n">
-        <v>3.262548922260276</v>
+        <v>0.9020505302166839</v>
       </c>
       <c r="Q31" t="n">
-        <v>3.262548922260276</v>
+        <v>0.4020122828097836</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37092,7 +37092,7 @@
         <v>1.155786985397851</v>
       </c>
       <c r="R32" t="n">
-        <v>0.6723126642497306</v>
+        <v>0.6723126642497288</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,16 +37147,16 @@
         <v>0.19716334000105</v>
       </c>
       <c r="J33" t="n">
-        <v>0.5410312747723081</v>
+        <v>3.262548922260277</v>
       </c>
       <c r="K33" t="n">
-        <v>0.9247086227794468</v>
+        <v>1.732397091516976</v>
       </c>
       <c r="L33" t="n">
         <v>1.243384859458851</v>
       </c>
       <c r="M33" t="n">
-        <v>1.450971484313459</v>
+        <v>1.45097148431346</v>
       </c>
       <c r="N33" t="n">
         <v>1.489374382002836</v>
@@ -37168,10 +37168,10 @@
         <v>1.093515604709008</v>
       </c>
       <c r="Q33" t="n">
-        <v>3.262548922260276</v>
+        <v>0.7309862225975241</v>
       </c>
       <c r="R33" t="n">
-        <v>1.353190453639797</v>
+        <v>0.3555470370770522</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0.3394256349377582</v>
+        <v>3.262548922260277</v>
       </c>
       <c r="K34" t="n">
-        <v>0.5577805856377201</v>
+        <v>0.5577805856377198</v>
       </c>
       <c r="L34" t="n">
-        <v>3.262548922260277</v>
+        <v>3.089016920985882</v>
       </c>
       <c r="M34" t="n">
-        <v>3.262548922260276</v>
+        <v>0.7525673425783417</v>
       </c>
       <c r="N34" t="n">
-        <v>3.262548922260276</v>
+        <v>0.7346729732425468</v>
       </c>
       <c r="O34" t="n">
-        <v>1.25085979785492</v>
+        <v>0.6785894010559677</v>
       </c>
       <c r="P34" t="n">
         <v>0.5806504625449325</v>
       </c>
       <c r="Q34" t="n">
-        <v>0.4020122828097836</v>
+        <v>3.262548922260278</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37329,7 +37329,7 @@
         <v>1.155786985397851</v>
       </c>
       <c r="R35" t="n">
-        <v>0.6723126642497306</v>
+        <v>0.6723126642497288</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,13 +37381,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0.19716334000105</v>
+        <v>3.262548922260276</v>
       </c>
       <c r="J36" t="n">
-        <v>3.262548922260276</v>
+        <v>1.004851808738577</v>
       </c>
       <c r="K36" t="n">
-        <v>0.924708622779447</v>
+        <v>0.9247086227794465</v>
       </c>
       <c r="L36" t="n">
         <v>1.243384859458851</v>
@@ -37408,7 +37408,7 @@
         <v>0.7309862225975241</v>
       </c>
       <c r="R36" t="n">
-        <v>1.16323550581458</v>
+        <v>0.3555470370770522</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
+        <v>0.3394256349377582</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0.5577805856377201</v>
+      </c>
+      <c r="L37" t="n">
         <v>3.262548922260276</v>
       </c>
-      <c r="K37" t="n">
+      <c r="M37" t="n">
+        <v>0.7525673425783417</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0.7346729732425468</v>
+      </c>
+      <c r="O37" t="n">
         <v>3.262548922260276</v>
       </c>
-      <c r="L37" t="n">
-        <v>0.7137671124819462</v>
-      </c>
-      <c r="M37" t="n">
+      <c r="P37" t="n">
         <v>3.262548922260276</v>
       </c>
-      <c r="N37" t="n">
-        <v>0.7346729732425477</v>
-      </c>
-      <c r="O37" t="n">
-        <v>0.6785894010559694</v>
-      </c>
-      <c r="P37" t="n">
-        <v>0.5806504625449325</v>
-      </c>
       <c r="Q37" t="n">
-        <v>0.4230488144597189</v>
+        <v>0.7462822273887468</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37560,7 +37560,7 @@
         <v>1.803309182076395</v>
       </c>
       <c r="P38" t="n">
-        <v>1.53908266586976</v>
+        <v>1.539082665869758</v>
       </c>
       <c r="Q38" t="n">
         <v>1.155786985397851</v>
@@ -37618,10 +37618,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>3.262548922260277</v>
+        <v>3.262548922260276</v>
       </c>
       <c r="J39" t="n">
-        <v>1.00485180873858</v>
+        <v>0.5410312747723083</v>
       </c>
       <c r="K39" t="n">
         <v>0.9247086227794465</v>
@@ -37642,7 +37642,7 @@
         <v>1.093515604709008</v>
       </c>
       <c r="Q39" t="n">
-        <v>0.7309862225975241</v>
+        <v>1.194806756563793</v>
       </c>
       <c r="R39" t="n">
         <v>0.3555470370770522</v>
@@ -37700,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0.3394256349377582</v>
+        <v>3.262548922260276</v>
       </c>
       <c r="K40" t="n">
-        <v>3.262548922260277</v>
+        <v>2.933030394141652</v>
       </c>
       <c r="L40" t="n">
         <v>0.7137671124819471</v>
@@ -37715,13 +37715,13 @@
         <v>0.7346729732425468</v>
       </c>
       <c r="O40" t="n">
-        <v>0.6785894010559685</v>
+        <v>0.6785894010559694</v>
       </c>
       <c r="P40" t="n">
-        <v>3.174255221748828</v>
+        <v>0.5806504625449325</v>
       </c>
       <c r="Q40" t="n">
-        <v>3.262548922260278</v>
+        <v>3.262548922260276</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37779,7 +37779,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0.9083906948817442</v>
+        <v>0.9083906948817444</v>
       </c>
       <c r="K41" t="n">
         <v>1.361442175632203</v>
@@ -37788,7 +37788,7 @@
         <v>1.688989405823955</v>
       </c>
       <c r="M41" t="n">
-        <v>1.879326147397212</v>
+        <v>1.879326147397211</v>
       </c>
       <c r="N41" t="n">
         <v>1.909735609237095</v>
@@ -37800,10 +37800,10 @@
         <v>1.539082665869758</v>
       </c>
       <c r="Q41" t="n">
-        <v>1.155786985397853</v>
+        <v>1.155786985397851</v>
       </c>
       <c r="R41" t="n">
-        <v>0.672312664249727</v>
+        <v>0.6723126642497306</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,16 +37858,16 @@
         <v>0.19716334000105</v>
       </c>
       <c r="J42" t="n">
-        <v>3.262548922260276</v>
+        <v>0.5410312747723081</v>
       </c>
       <c r="K42" t="n">
-        <v>0.924708622779447</v>
+        <v>0.9247086227794468</v>
       </c>
       <c r="L42" t="n">
         <v>1.243384859458851</v>
       </c>
       <c r="M42" t="n">
-        <v>1.45097148431346</v>
+        <v>1.450971484313459</v>
       </c>
       <c r="N42" t="n">
         <v>1.489374382002836</v>
@@ -37876,13 +37876,13 @@
         <v>1.362486586628911</v>
       </c>
       <c r="P42" t="n">
-        <v>1.093515604709008</v>
+        <v>1.715719835751282</v>
       </c>
       <c r="Q42" t="n">
-        <v>1.538674691335052</v>
+        <v>0.7309862225975241</v>
       </c>
       <c r="R42" t="n">
-        <v>0.3555470370770522</v>
+        <v>3.262548922260276</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0.3394256349377582</v>
+        <v>0.8765183203107321</v>
       </c>
       <c r="K43" t="n">
-        <v>3.17425522174883</v>
+        <v>0.55778058563772</v>
       </c>
       <c r="L43" t="n">
         <v>0.7137671124819467</v>
       </c>
       <c r="M43" t="n">
-        <v>0.7525673425783417</v>
+        <v>3.262548922260276</v>
       </c>
       <c r="N43" t="n">
-        <v>0.7346729732425468</v>
+        <v>3.262548922260276</v>
       </c>
       <c r="O43" t="n">
-        <v>0.6785894010559685</v>
+        <v>3.262548922260276</v>
       </c>
       <c r="P43" t="n">
-        <v>3.262548922260276</v>
+        <v>0.5806504625449325</v>
       </c>
       <c r="Q43" t="n">
-        <v>3.262548922260276</v>
+        <v>0.4020122828097836</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>50.85195676437968</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>112.8595291536268</v>
+        <v>0.9083906948817444</v>
       </c>
       <c r="K44" t="n">
-        <v>169.1471783864347</v>
+        <v>1.361442175632203</v>
       </c>
       <c r="L44" t="n">
-        <v>209.8420318050158</v>
+        <v>1.688989405823955</v>
       </c>
       <c r="M44" t="n">
-        <v>233.4896926139916</v>
+        <v>1.879326147397211</v>
       </c>
       <c r="N44" t="n">
-        <v>237.2677999464443</v>
+        <v>1.909735609237095</v>
       </c>
       <c r="O44" t="n">
-        <v>224.0452553667433</v>
+        <v>1.803309182076395</v>
       </c>
       <c r="P44" t="n">
-        <v>191.2174419853368</v>
+        <v>1.539082665869758</v>
       </c>
       <c r="Q44" t="n">
-        <v>143.5963354852202</v>
+        <v>1.155786985397851</v>
       </c>
       <c r="R44" t="n">
-        <v>83.52891675219394</v>
+        <v>0.6723126642497306</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,34 +38092,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>50.82274801921519</v>
+        <v>3.262548922260276</v>
       </c>
       <c r="J45" t="n">
-        <v>395.0550542837863</v>
+        <v>1.004851808738578</v>
       </c>
       <c r="K45" t="n">
-        <v>131.6915904391128</v>
+        <v>0.9247086227794465</v>
       </c>
       <c r="L45" t="n">
-        <v>154.4795984656607</v>
+        <v>1.243384859458851</v>
       </c>
       <c r="M45" t="n">
-        <v>180.2704050774914</v>
+        <v>1.45097148431346</v>
       </c>
       <c r="N45" t="n">
-        <v>185.041626288561</v>
+        <v>1.489374382002836</v>
       </c>
       <c r="O45" t="n">
-        <v>169.2769372379901</v>
+        <v>1.362486586628911</v>
       </c>
       <c r="P45" t="n">
-        <v>135.8596658518925</v>
+        <v>1.093515604709008</v>
       </c>
       <c r="Q45" t="n">
-        <v>90.818588703052</v>
+        <v>0.7309862225975241</v>
       </c>
       <c r="R45" t="n">
-        <v>162.5299238926254</v>
+        <v>0.3555470370770522</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,31 +38174,31 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>129.6248678447853</v>
+        <v>0.3394256349377582</v>
       </c>
       <c r="K46" t="n">
-        <v>346.8331089915197</v>
+        <v>0.5577805856377201</v>
       </c>
       <c r="L46" t="n">
-        <v>266.6631737149102</v>
+        <v>3.262548922260277</v>
       </c>
       <c r="M46" t="n">
-        <v>93.49985245153209</v>
+        <v>0.7525673425783417</v>
       </c>
       <c r="N46" t="n">
-        <v>91.27663494268052</v>
+        <v>0.7346729732425468</v>
       </c>
       <c r="O46" t="n">
-        <v>84.30874592103589</v>
+        <v>3.262548922260277</v>
       </c>
       <c r="P46" t="n">
-        <v>418.1856318563248</v>
+        <v>3.262548922260276</v>
       </c>
       <c r="Q46" t="n">
-        <v>219.8381709871101</v>
+        <v>0.7462822273887468</v>
       </c>
       <c r="R46" t="n">
-        <v>5.615951549488944</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
